--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -6751,7 +6751,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6759,6 +6759,7 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/21:JUNIO:2017/TFGSara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saradelrioplaza/Desktop/TFGSara/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25640" yWindow="0" windowWidth="25560" windowHeight="28800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Acidez" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="268">
   <si>
     <t>E</t>
   </si>
@@ -828,6 +828,24 @@
   </si>
   <si>
     <t>CF3SO3H-A</t>
+  </si>
+  <si>
+    <t>H2FPO4</t>
+  </si>
+  <si>
+    <t>H2FPO4-</t>
+  </si>
+  <si>
+    <t>H2FPO4-H2O</t>
+  </si>
+  <si>
+    <t>H2FPO4-H2O-</t>
+  </si>
+  <si>
+    <t>HCl2PO4-H2O</t>
+  </si>
+  <si>
+    <t>HCl2PO4-H2O-</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1092,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1129,28 +1147,29 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1378,11 +1397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1670900704"/>
-        <c:axId val="-1670897312"/>
+        <c:axId val="-1573903328"/>
+        <c:axId val="-1602345792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1670900704"/>
+        <c:axId val="-1573903328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="330.0"/>
@@ -1502,12 +1521,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1670897312"/>
+        <c:crossAx val="-1602345792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1670897312"/>
+        <c:axId val="-1602345792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1644,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1670900704"/>
+        <c:crossAx val="-1573903328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2590,8 +2609,8 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2633,13 +2652,13 @@
       <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3570,50 +3589,50 @@
         <v>322.28152210742616</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="44">
         <v>-644.26915659999997</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="44">
         <v>-644.3363885</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="45">
         <v>4.8676999999999998E-2</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="45">
         <v>5.5775999999999999E-2</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="46">
         <v>1.9394000000000002E-2</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="43">
         <f t="shared" si="2"/>
         <v>-644.28826155009995</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="43">
         <f t="shared" si="3"/>
         <v>-644.28006244990002</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="43">
         <f t="shared" si="4"/>
         <v>-644.31699449999996</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="43">
         <f t="shared" si="0"/>
         <v>0.51225139999996827</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="43">
         <f t="shared" si="5"/>
         <v>321.44287601398008</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="43">
         <f t="shared" si="1"/>
         <v>0.52384156849996089</v>
       </c>
-      <c r="N21" s="49">
+      <c r="N21" s="43">
         <f>M21*627.51</f>
         <v>328.71582264941043</v>
       </c>
@@ -3902,7 +3921,7 @@
       <c r="C28" s="41">
         <v>-1563.4429313000001</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="3">
         <v>2.8806999999999999E-2</v>
       </c>
       <c r="E28" s="39">
@@ -3941,14 +3960,42 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="C29" s="2">
+        <v>-743.51708699999995</v>
+      </c>
+      <c r="D29" s="39">
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="E29" s="39">
+        <v>4.8273000000000003E-2</v>
+      </c>
+      <c r="F29" s="39">
+        <v>9.3410000000000003E-3</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ref="G29" si="41">C29+0.9887*D29</f>
+        <v>-743.4771731809999</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ref="H29" si="42">C29+D29+E29-0.9887*D29</f>
+        <v>-743.46835781899995</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" ref="I29" si="43">C29+F29</f>
+        <v>-743.507746</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="44">I59+$I$31-I29</f>
+        <v>0.52471570000000156</v>
+      </c>
+      <c r="K29">
+        <f>J29*627.51</f>
+        <v>329.26434890700097</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
@@ -4032,15 +4079,15 @@
         <v>-6.2719999999999998E-3</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G51" si="41">C33+0.9887*D33</f>
+        <f t="shared" ref="G33:G51" si="45">C33+0.9887*D33</f>
         <v>-526.4443592133</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H51" si="42">C33+D33+E33-0.9887*D33</f>
+        <f t="shared" ref="H33:H51" si="46">C33+D33+E33-0.9887*D33</f>
         <v>-526.43672698670002</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:I51" si="43">C33+F33</f>
+        <f t="shared" ref="I33:I51" si="47">C33+F33</f>
         <v>-526.47588359999997</v>
       </c>
     </row>
@@ -4064,15 +4111,15 @@
         <v>-9.2230000000000003E-3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-849.40896088110003</v>
       </c>
       <c r="H34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-849.4011037189</v>
       </c>
       <c r="I34">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-849.44146480000006</v>
       </c>
     </row>
@@ -4096,15 +4143,15 @@
         <v>-5.6449999999999998E-3</v>
       </c>
       <c r="G35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-961.78215953270001</v>
       </c>
       <c r="H35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-961.77341806729999</v>
       </c>
       <c r="I35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-961.81437979999998</v>
       </c>
     </row>
@@ -4128,15 +4175,15 @@
         <v>-1.2892000000000001E-2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-723.93009681349997</v>
       </c>
       <c r="H36">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-723.92450118649992</v>
       </c>
       <c r="I36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-723.95771549999995</v>
       </c>
     </row>
@@ -4160,15 +4207,15 @@
         <v>1.3003000000000001E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-327.85030046230003</v>
       </c>
       <c r="H37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-327.84363873769996</v>
       </c>
       <c r="I37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-327.87810209999998</v>
       </c>
     </row>
@@ -4192,15 +4239,15 @@
         <v>9.8029999999999992E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-650.81797221600004</v>
       </c>
       <c r="H38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-650.81101358400008</v>
       </c>
       <c r="I38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-650.84704490000001</v>
       </c>
     </row>
@@ -4224,15 +4271,15 @@
         <v>1.2787E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-763.19595779259998</v>
       </c>
       <c r="H39">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-763.1882332074</v>
       </c>
       <c r="I39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-763.22558800000002</v>
       </c>
     </row>
@@ -4256,15 +4303,15 @@
         <v>4.9700000000000005E-4</v>
       </c>
       <c r="G40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-264.53784948489999</v>
       </c>
       <c r="H40">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-264.53278271509993</v>
       </c>
       <c r="I40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-264.56332859999998</v>
       </c>
     </row>
@@ -4288,15 +4335,15 @@
         <v>2.307E-3</v>
       </c>
       <c r="G41">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1248.5838717572999</v>
       </c>
       <c r="H41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-1248.5739056427001</v>
       </c>
       <c r="I41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-1248.6175742</v>
       </c>
     </row>
@@ -4320,15 +4367,15 @@
         <v>-2.4989999999999999E-3</v>
       </c>
       <c r="G42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-699.8808296505</v>
       </c>
       <c r="H42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-699.87422534949997</v>
       </c>
       <c r="I42">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-699.90941549999991</v>
       </c>
     </row>
@@ -4352,15 +4399,15 @@
         <v>2.0236000000000001E-2</v>
       </c>
       <c r="G43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-228.5668223518</v>
       </c>
       <c r="H43">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-228.56035564819999</v>
       </c>
       <c r="I43">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-228.59373349999998</v>
       </c>
     </row>
@@ -4384,15 +4431,15 @@
         <v>1.7831E-2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-551.53909187009992</v>
       </c>
       <c r="H44">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-551.53241752990004</v>
       </c>
       <c r="I44">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-551.56681719999995</v>
       </c>
     </row>
@@ -4416,15 +4463,15 @@
         <v>2.1609E-2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-663.92049036549997</v>
       </c>
       <c r="H45">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-663.91332383450003</v>
       </c>
       <c r="I45">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-663.94825209999999</v>
       </c>
     </row>
@@ -4448,15 +4495,15 @@
         <v>3.6960000000000001E-3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-427.14261767789998</v>
       </c>
       <c r="H46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-427.1354549221</v>
       </c>
       <c r="I46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-427.1724218</v>
       </c>
     </row>
@@ -4480,15 +4527,15 @@
         <v>1E-4</v>
       </c>
       <c r="G47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-750.10952875530006</v>
       </c>
       <c r="H47">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-750.10206724469992</v>
       </c>
       <c r="I47">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-750.14094950000003</v>
       </c>
     </row>
@@ -4512,15 +4559,15 @@
         <v>3.663E-3</v>
       </c>
       <c r="G48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-862.48510903910005</v>
       </c>
       <c r="H48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-862.47685536089989</v>
       </c>
       <c r="I48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-862.51625520000005</v>
       </c>
     </row>
@@ -4544,15 +4591,15 @@
         <v>-1.5375E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-567.29093851480002</v>
       </c>
       <c r="H49">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-567.28609848519989</v>
       </c>
       <c r="I49">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-567.31738299999995</v>
       </c>
     </row>
@@ -4576,47 +4623,47 @@
         <v>-1.1348E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-280.4587030385</v>
       </c>
       <c r="H50">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-280.45428636150001</v>
       </c>
       <c r="I50">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-280.48403619999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="49" t="s">
+    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="53">
+      <c r="B51" s="47">
         <v>-643.72618469999998</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="44">
         <v>-643.80259409999996</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="45">
         <v>3.6922000000000003E-2</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="45">
         <v>4.3596000000000003E-2</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="45">
         <v>7.8510000000000003E-3</v>
       </c>
-      <c r="G51" s="51">
-        <f t="shared" si="41"/>
+      <c r="G51" s="45">
+        <f t="shared" si="45"/>
         <v>-643.76608931859994</v>
       </c>
-      <c r="H51" s="49">
-        <f t="shared" si="42"/>
+      <c r="H51" s="43">
+        <f t="shared" si="46"/>
         <v>-643.75858088140001</v>
       </c>
-      <c r="I51" s="49">
-        <f t="shared" si="43"/>
+      <c r="I51" s="43">
+        <f t="shared" si="47"/>
         <v>-643.79474310000001</v>
       </c>
     </row>
@@ -4670,15 +4717,15 @@
         <v>-1.2555E-2</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" ref="G52:G53" si="44">C53+0.9887*D53</f>
+        <f t="shared" ref="G53" si="48">C53+0.9887*D53</f>
         <v>-799.06158070189997</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" ref="H52:H53" si="45">C53+D53+E53-0.9887*D53</f>
+        <f t="shared" ref="H53" si="49">C53+D53+E53-0.9887*D53</f>
         <v>-799.05454829809992</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I52:I53" si="46">C53+F53</f>
+        <f t="shared" ref="I53" si="50">C53+F53</f>
         <v>-799.09130249999998</v>
       </c>
     </row>
@@ -4700,15 +4747,15 @@
         <v>-1.4433E-2</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" ref="G54" si="47">C54+0.9887*D54</f>
+        <f t="shared" ref="G54" si="51">C54+0.9887*D54</f>
         <v>-1159.4729769691999</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" ref="H54" si="48">C54+D54+E54-0.9887*D54</f>
+        <f t="shared" ref="H54" si="52">C54+D54+E54-0.9887*D54</f>
         <v>-1159.4657014308</v>
       </c>
       <c r="I54">
-        <f t="shared" ref="I54" si="49">C54+F54</f>
+        <f t="shared" ref="I54" si="53">C54+F54</f>
         <v>-1159.5037076999999</v>
       </c>
     </row>
@@ -4730,15 +4777,15 @@
         <v>-1.1868E-2</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ref="G55" si="50">C55+0.9887*D55</f>
+        <f t="shared" ref="G55" si="54">C55+0.9887*D55</f>
         <v>-363.71889637679999</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" ref="H55" si="51">C55+D55+E55-0.9887*D55</f>
+        <f t="shared" ref="H55" si="55">C55+D55+E55-0.9887*D55</f>
         <v>-363.71298422320001</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55" si="52">C55+F55</f>
+        <f t="shared" ref="I55" si="56">C55+F55</f>
         <v>-363.74652029999999</v>
       </c>
     </row>
@@ -4760,15 +4807,15 @@
         <v>-1.3924000000000001E-2</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" ref="G56" si="53">C56+0.9887*D56</f>
+        <f t="shared" ref="G56" si="57">C56+0.9887*D56</f>
         <v>-724.12784413500003</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" ref="H56" si="54">C56+D56+E56-0.9887*D56</f>
+        <f t="shared" ref="H56" si="58">C56+D56+E56-0.9887*D56</f>
         <v>-724.12161926499994</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56" si="55">C56+F56</f>
+        <f t="shared" ref="I56" si="59">C56+F56</f>
         <v>-724.15654919999997</v>
       </c>
     </row>
@@ -4792,15 +4839,15 @@
         <v>-8.3320000000000009E-3</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G58" si="56">C57+0.9887*D57</f>
+        <f t="shared" ref="G57:G58" si="60">C57+0.9887*D57</f>
         <v>-1103.3097269814</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57" si="57">C57+D57+E57-0.9887*D57</f>
+        <f t="shared" ref="H57" si="61">C57+D57+E57-0.9887*D57</f>
         <v>-1103.3008588185999</v>
       </c>
       <c r="I57">
-        <f t="shared" ref="I57" si="58">C57+F57</f>
+        <f t="shared" ref="I57" si="62">C57+F57</f>
         <v>-1103.3418649</v>
       </c>
     </row>
@@ -4824,26 +4871,49 @@
         <v>-2.1260000000000001E-2</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-1562.8741641735999</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" ref="H58" si="59">C58+D58+E58-0.9887*D58</f>
+        <f t="shared" ref="H58:H59" si="63">C58+D58+E58-0.9887*D58</f>
         <v>-1562.8642706264002</v>
       </c>
       <c r="I58">
-        <f t="shared" ref="I58" si="60">C58+F58</f>
+        <f t="shared" ref="I58:I59" si="64">C58+F58</f>
         <v>-1562.9095348999999</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="3">
+        <v>-742.89247220000004</v>
+      </c>
+      <c r="C59" s="2">
+        <v>-742.96808729999998</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.5874999999999999E-2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3.3418000000000003E-2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>-4.9430000000000003E-3</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" ref="G59" si="65">C59+0.9887*D59</f>
+        <v>-742.94250468749999</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="63"/>
+        <v>-742.93437691249994</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="64"/>
+        <v>-742.9730303</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
@@ -4875,10 +4945,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4886,6 +4956,7 @@
     <col min="1" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4917,13 +4988,13 @@
       <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4998,7 +5069,7 @@
         <v>-603.44420119999995</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J21" si="0">I32+$I$30-I3</f>
+        <f>I33+$I$31-I3</f>
         <v>0.49246749999997519</v>
       </c>
       <c r="K3">
@@ -5006,7 +5077,7 @@
         <v>309.02828092498441</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M22" si="1">H32+$H$30-H3</f>
+        <f>H33+$H$31-H3</f>
         <v>0.50563814229997206</v>
       </c>
       <c r="N3">
@@ -5034,31 +5105,31 @@
         <v>2.1052999999999999E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G22" si="2">C4+0.9887*D4</f>
+        <f t="shared" ref="G4:G21" si="0">C4+0.9887*D4</f>
         <v>-926.36306404749996</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H21" si="3">C4+D4+E4-D4*0.9887</f>
+        <f t="shared" ref="H4:H21" si="1">C4+D4+E4-D4*0.9887</f>
         <v>-926.35107755249987</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I21" si="4">C4+F4</f>
+        <f t="shared" ref="I4:I21" si="2">C4+F4</f>
         <v>-926.39942979999989</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f>I34+$I$31-I4</f>
         <v>0.48342299999990246</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K20" si="5">J4*627.51</f>
+        <f t="shared" ref="K4:K20" si="3">J4*627.51</f>
         <v>303.35276672993876</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f>H34+$H$31-H4</f>
         <v>0.49674155939987941</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N22" si="6">M4*627.51</f>
+        <f t="shared" ref="N4:N22" si="4">M4*627.51</f>
         <v>311.71029593901829</v>
       </c>
     </row>
@@ -5082,31 +5153,31 @@
         <v>2.6376E-2</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-1038.7152762726</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-1038.7024371273999</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>-1038.7152762726</v>
-      </c>
-      <c r="H5">
+        <v>-1038.7516846999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f>I35+$I$31-I5</f>
+        <v>0.46579039999983252</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="3"/>
-        <v>-1038.7024371273999</v>
-      </c>
-      <c r="I5" s="1">
+        <v>292.2881339038949</v>
+      </c>
+      <c r="M5">
+        <f>H35+$H$31-H5</f>
+        <v>0.4784600429998136</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="4"/>
-        <v>-1038.7516846999999</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.46579039999983252</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>292.2881339038949</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0.4784600429998136</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="6"/>
         <v>300.23846158281304</v>
       </c>
     </row>
@@ -5130,31 +5201,31 @@
         <v>1.9279000000000001E-2</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-800.86501947490001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-800.85537592510002</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>-800.86501947490001</v>
-      </c>
-      <c r="H6">
+        <v>-800.89673070000003</v>
+      </c>
+      <c r="J6" s="1">
+        <f>I36+$I$31-I6</f>
+        <v>0.46700840000005428</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="3"/>
-        <v>-800.85537592510002</v>
-      </c>
-      <c r="I6" s="1">
+        <v>293.05244108403406</v>
+      </c>
+      <c r="M6">
+        <f>H36+$H$31-H6</f>
+        <v>0.47953179440003169</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="4"/>
-        <v>-800.89673070000003</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.46700840000005428</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>293.05244108403406</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0.47953179440003169</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="6"/>
         <v>300.91099630396388</v>
       </c>
     </row>
@@ -5178,31 +5249,31 @@
         <v>4.7967000000000003E-2</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-404.83603215380003</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-404.82564304620001</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>-404.83603215380003</v>
-      </c>
-      <c r="H7">
+        <v>-404.86738459999998</v>
+      </c>
+      <c r="J7" s="1">
+        <f>I37+$I$31-I7</f>
+        <v>0.51090800000002901</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="3"/>
-        <v>-404.82564304620001</v>
-      </c>
-      <c r="I7" s="1">
+        <v>320.59987908001818</v>
+      </c>
+      <c r="M7">
+        <f>H37+$H$31-H7</f>
+        <v>0.52321273820007264</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="4"/>
-        <v>-404.86738459999998</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51090800000002901</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>320.59987908001818</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0.52321273820007264</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="6"/>
         <v>328.32122534792757</v>
       </c>
     </row>
@@ -5226,31 +5297,31 @@
         <v>4.0526E-2</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-727.79126195089998</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-727.78025844909996</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>-727.79126195089998</v>
-      </c>
-      <c r="H8">
+        <v>-727.82399169999997</v>
+      </c>
+      <c r="J8" s="1">
+        <f>I38+$I$31-I8</f>
+        <v>0.50114089999999578</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="3"/>
-        <v>-727.78025844909996</v>
-      </c>
-      <c r="I8" s="1">
+        <v>314.47092615899737</v>
+      </c>
+      <c r="M8">
+        <f>H38+$H$31-H8</f>
+        <v>0.5136516628000436</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="4"/>
-        <v>-727.82399169999997</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50114089999999578</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>314.47092615899737</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>0.5136516628000436</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="6"/>
         <v>322.32155492365536</v>
       </c>
     </row>
@@ -5274,31 +5345,31 @@
         <v>4.4823000000000002E-2</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-840.14460669419998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-840.13283170579996</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>-840.14460669419998</v>
-      </c>
-      <c r="H9">
+        <v>-840.17861670000002</v>
+      </c>
+      <c r="J9" s="1">
+        <f>I39+$I$31-I9</f>
+        <v>0.48272180000003573</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="3"/>
-        <v>-840.13283170579996</v>
-      </c>
-      <c r="I9" s="1">
+        <v>302.91275671802242</v>
+      </c>
+      <c r="M9">
+        <f>H39+$H$31-H9</f>
+        <v>0.49312944339999376</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="4"/>
-        <v>-840.17861670000002</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.48272180000003573</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>302.91275671802242</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>0.49312944339999376</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="6"/>
         <v>309.4436570279301</v>
       </c>
     </row>
@@ -5322,31 +5393,31 @@
         <v>3.4030999999999999E-2</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-341.52105274029998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-341.51195985970003</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>-341.52105274029998</v>
-      </c>
-      <c r="H10">
+        <v>-341.55062579999998</v>
+      </c>
+      <c r="J10" s="1">
+        <f>I40+$I$31-I10</f>
+        <v>0.50947279999996908</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="3"/>
-        <v>-341.51195985970003</v>
-      </c>
-      <c r="I10" s="1">
+        <v>319.69927672798059</v>
+      </c>
+      <c r="M10">
+        <f>H40+$H$31-H10</f>
+        <v>0.52172562310005333</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="4"/>
-        <v>-341.55062579999998</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50947279999996908</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
-        <v>319.69927672798059</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0.52172562310005333</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="6"/>
         <v>327.38804575151448</v>
       </c>
     </row>
@@ -5370,31 +5441,31 @@
         <v>3.5609000000000002E-2</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-1325.5015751187</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-1325.4876420813002</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>-1325.5015751187</v>
-      </c>
-      <c r="H11">
+        <v>-1325.5382391000001</v>
+      </c>
+      <c r="J11" s="1">
+        <f>I41+$I$31-I11</f>
+        <v>0.45164290000002438</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="3"/>
-        <v>-1325.4876420813002</v>
-      </c>
-      <c r="I11" s="1">
+        <v>283.41043617901528</v>
+      </c>
+      <c r="M11">
+        <f>H41+$H$31-H11</f>
+        <v>0.46554053160025433</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="4"/>
-        <v>-1325.5382391000001</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45164290000002438</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>283.41043617901528</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>0.46554053160025433</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
         <v>292.13133898447558</v>
       </c>
     </row>
@@ -5418,31 +5489,31 @@
         <v>3.1356000000000002E-2</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-776.83085192240003</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-776.82060747759999</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>-776.83085192240003</v>
-      </c>
-      <c r="H12">
+        <v>-776.86242470000002</v>
+      </c>
+      <c r="J12" s="1">
+        <f>I42+$I$31-I12</f>
+        <v>0.48013460000004216</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="3"/>
-        <v>-776.82060747759999</v>
-      </c>
-      <c r="I12" s="1">
+        <v>301.28926284602647</v>
+      </c>
+      <c r="M12">
+        <f>H42+$H$31-H12</f>
+        <v>0.49367080210004133</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="4"/>
-        <v>-776.86242470000002</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.48013460000004216</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
-        <v>301.28926284602647</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0.49367080210004133</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="6"/>
         <v>309.78336502579691</v>
       </c>
     </row>
@@ -5466,31 +5537,31 @@
         <v>5.6416000000000001E-2</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-305.56900455380003</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-305.55897924620001</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>-305.56900455380003</v>
-      </c>
-      <c r="H13">
+        <v>-305.5988289</v>
+      </c>
+      <c r="J13" s="1">
+        <f>I43+$I$31-I13</f>
+        <v>0.52416890000000649</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="3"/>
-        <v>-305.55897924620001</v>
-      </c>
-      <c r="I13" s="1">
+        <v>328.92122643900404</v>
+      </c>
+      <c r="M13">
+        <f>H43+$H$31-H13</f>
+        <v>0.53739193740000246</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="4"/>
-        <v>-305.5988289</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52416890000000649</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>328.92122643900404</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>0.53739193740000246</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="6"/>
         <v>337.21881463787554</v>
       </c>
     </row>
@@ -5514,31 +5585,31 @@
         <v>4.8321000000000003E-2</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-628.52187603100003</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-628.51116136899998</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>-628.52187603100003</v>
-      </c>
-      <c r="H14">
+        <v>-628.5535112</v>
+      </c>
+      <c r="J14" s="1">
+        <f>I44+$I$31-I14</f>
+        <v>0.50913390000005165</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
-        <v>-628.51116136899998</v>
-      </c>
-      <c r="I14" s="1">
+        <v>319.4866135890324</v>
+      </c>
+      <c r="M14">
+        <f>H44+$H$31-H14</f>
+        <v>0.52197996789993795</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="4"/>
-        <v>-628.5535112</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50913390000005165</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>319.4866135890324</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0.52197996789993795</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="6"/>
         <v>327.54764965689003</v>
       </c>
     </row>
@@ -5562,31 +5633,31 @@
         <v>5.4177999999999997E-2</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-740.88183160400001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-740.87065759600011</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>-740.88183160400001</v>
-      </c>
-      <c r="H15">
+        <v>-740.91374960000007</v>
+      </c>
+      <c r="J15" s="1">
+        <f>I45+$I$31-I15</f>
+        <v>0.49356470000009267</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
-        <v>-740.87065759600011</v>
-      </c>
-      <c r="I15" s="1">
+        <v>309.71678489705818</v>
+      </c>
+      <c r="M15">
+        <f>H45+$H$31-H15</f>
+        <v>0.50434736020008586</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="4"/>
-        <v>-740.91374960000007</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.49356470000009267</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>309.71678489705818</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>0.50434736020008586</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="6"/>
         <v>316.48301199915585</v>
       </c>
     </row>
@@ -5610,31 +5681,31 @@
         <v>3.8129999999999997E-2</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-504.11779407770001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-504.10681892230002</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>-504.11779407770001</v>
-      </c>
-      <c r="H16">
+        <v>-504.15137349999998</v>
+      </c>
+      <c r="J16" s="1">
+        <f>I46+$I$31-I16</f>
+        <v>0.50196149999993622</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
-        <v>-504.10681892230002</v>
-      </c>
-      <c r="I16" s="1">
+        <v>314.98586086495999</v>
+      </c>
+      <c r="M16">
+        <f>H46+$H$31-H16</f>
+        <v>0.5140816112000266</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="4"/>
-        <v>-504.15137349999998</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50196149999993622</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>314.98586086495999</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>0.5140816112000266</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="6"/>
         <v>322.59135184412867</v>
       </c>
     </row>
@@ -5658,31 +5729,31 @@
         <v>3.0917E-2</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-827.07216791890005</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-827.06063708109991</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>-827.07216791890005</v>
-      </c>
-      <c r="H17">
+        <v>-827.10695299999998</v>
+      </c>
+      <c r="J17" s="1">
+        <f>I47+$I$31-I17</f>
+        <v>0.49173909999990428</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="3"/>
-        <v>-827.06063708109991</v>
-      </c>
-      <c r="I17" s="1">
+        <v>308.57120264093993</v>
+      </c>
+      <c r="M17">
+        <f>H47+$H$31-H17</f>
+        <v>0.50421812839977065</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="4"/>
-        <v>-827.10695299999998</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.49173909999990428</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>308.57120264093993</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>0.50421812839977065</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="6"/>
         <v>316.40191775214009</v>
       </c>
     </row>
@@ -5706,31 +5777,31 @@
         <v>3.5359000000000002E-2</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-939.42533539649992</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-939.41298260349993</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>-939.42533539649992</v>
-      </c>
-      <c r="H18">
+        <v>-939.46096999999997</v>
+      </c>
+      <c r="J18" s="1">
+        <f>I48+$I$31-I18</f>
+        <v>0.47549539999999979</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="3"/>
-        <v>-939.41298260349993</v>
-      </c>
-      <c r="I18" s="1">
+        <v>298.37811845399989</v>
+      </c>
+      <c r="M18">
+        <f>H48+$H$31-H18</f>
+        <v>0.48565219039994645</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="4"/>
-        <v>-939.46096999999997</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.47549539999999979</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>298.37811845399989</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>0.48565219039994645</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="6"/>
         <v>304.7516059978704</v>
       </c>
     </row>
@@ -5754,31 +5825,31 @@
         <v>1.7611000000000002E-2</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-644.24182358090002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-644.23313441910011</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>-644.24182358090002</v>
-      </c>
-      <c r="H19">
+        <v>-644.27186100000006</v>
+      </c>
+      <c r="J19" s="1">
+        <f>I49+$I$31-I19</f>
+        <v>0.479562900000019</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="3"/>
-        <v>-644.23313441910011</v>
-      </c>
-      <c r="I19" s="1">
+        <v>300.93051537901192</v>
+      </c>
+      <c r="M19">
+        <f>H49+$H$31-H19</f>
+        <v>0.49256104580001647</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="4"/>
-        <v>-644.27186100000006</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.479562900000019</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
-        <v>300.93051537901192</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>0.49256104580001647</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="6"/>
         <v>309.08698184996831</v>
       </c>
     </row>
@@ -5802,79 +5873,79 @@
         <v>2.1347000000000001E-2</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-357.42358822169996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-357.4150983783</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>-357.42358822169996</v>
-      </c>
-      <c r="H20">
+        <v>-357.45306929999998</v>
+      </c>
+      <c r="J20" s="1">
+        <f>I50+$I$31-I20</f>
+        <v>0.49317700000000286</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="3"/>
-        <v>-357.4150983783</v>
-      </c>
-      <c r="I20" s="1">
+        <v>309.47349927000181</v>
+      </c>
+      <c r="M20">
+        <f>H50+$H$31-H20</f>
+        <v>0.50518742240001302</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="4"/>
-        <v>-357.45306929999998</v>
-      </c>
-      <c r="J20" s="1">
+        <v>317.01015943023219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="54">
+        <v>-720.74316099999999</v>
+      </c>
+      <c r="C21" s="54">
+        <v>-720.81733120000001</v>
+      </c>
+      <c r="D21" s="43">
+        <v>7.4456999999999995E-2</v>
+      </c>
+      <c r="E21" s="43">
+        <v>8.3881999999999998E-2</v>
+      </c>
+      <c r="F21" s="43">
+        <v>4.163E-2</v>
+      </c>
+      <c r="G21" s="43">
         <f t="shared" si="0"/>
-        <v>0.49317700000000286</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>309.47349927000181</v>
-      </c>
-      <c r="M20">
+        <v>-720.74371556410006</v>
+      </c>
+      <c r="H21" s="43">
         <f t="shared" si="1"/>
-        <v>0.50518742240001302</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="6"/>
-        <v>317.01015943023219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-720.74316099999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>-720.81733120000001</v>
-      </c>
-      <c r="D21">
-        <v>7.4456999999999995E-2</v>
-      </c>
-      <c r="E21">
-        <v>8.3881999999999998E-2</v>
-      </c>
-      <c r="F21">
-        <v>4.163E-2</v>
-      </c>
-      <c r="G21">
+        <v>-720.7326078358999</v>
+      </c>
+      <c r="I21" s="54">
         <f t="shared" si="2"/>
-        <v>-720.74371556410006</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>-720.7326078358999</v>
-      </c>
-      <c r="I21" s="1">
+        <v>-720.77570119999996</v>
+      </c>
+      <c r="J21" s="54">
+        <f>I51+$I$31-I21</f>
+        <v>0.52995929999997315</v>
+      </c>
+      <c r="K21" s="43">
+        <f t="shared" ref="K21" si="5">J21*627.51</f>
+        <v>332.55476034298317</v>
+      </c>
+      <c r="M21" s="43">
+        <f>H51+$H$31-H21</f>
+        <v>0.54448465829977977</v>
+      </c>
+      <c r="N21" s="43">
         <f t="shared" si="4"/>
-        <v>-720.77570119999996</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52995929999997315</v>
-      </c>
-      <c r="K21">
-        <f t="shared" ref="K21" si="7">J21*627.51</f>
-        <v>332.55476034298317</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>0.54448465829977977</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="6"/>
         <v>341.66956792969478</v>
       </c>
     </row>
@@ -5897,25 +5968,32 @@
       <c r="F22">
         <v>1.7446E-2</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
+      <c r="G22" s="10">
+        <f t="shared" ref="G22:G28" si="6">C22+0.9887*D22</f>
         <v>-919.06230982229999</v>
       </c>
-      <c r="H22">
-        <f t="shared" ref="H22" si="8">C22+D22+E22-D22*0.9887</f>
+      <c r="H22" s="10">
+        <f t="shared" ref="H22:H28" si="7">C22+D22+E22-D22*0.9887</f>
         <v>-919.04981637770015</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" ref="I22" si="9">C22+F22</f>
+      <c r="I22" s="11">
+        <f t="shared" ref="I22:I28" si="8">C22+F22</f>
         <v>-919.09773060000009</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="11">
+        <f>I52+$I$31-I22</f>
+        <v>919.0877306000001</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" ref="K22:K28" si="9">J22*627.51</f>
+        <v>576736.741828806</v>
+      </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f>H52+$H$31-H22</f>
         <v>919.05217637770011</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>576714.43119877053</v>
       </c>
     </row>
@@ -5938,28 +6016,66 @@
       <c r="F23">
         <v>1.1648E-2</v>
       </c>
-      <c r="G23">
-        <f t="shared" ref="G23" si="10">C23+0.9887*D23</f>
+      <c r="G23" s="10">
+        <f t="shared" si="6"/>
         <v>-875.88948096170009</v>
       </c>
-      <c r="H23">
-        <f t="shared" ref="H23" si="11">C23+D23+E23-D23*0.9887</f>
+      <c r="H23" s="10">
+        <f t="shared" si="7"/>
         <v>-875.87713443829989</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" ref="I23" si="12">C23+F23</f>
+      <c r="I23" s="11">
+        <f t="shared" si="8"/>
         <v>-875.9254972</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="11">
+        <f>I53+$I$31-I23</f>
+        <v>875.9154972</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="9"/>
+        <v>549645.733647972</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="B24" s="1">
+        <v>-1236.2693254000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-1236.3512731000001</v>
+      </c>
+      <c r="D24">
+        <v>4.7764000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.8883999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.1035E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="6"/>
+        <v>-1236.3040488332001</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="7"/>
+        <v>-1236.2918493668001</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="8"/>
+        <v>-1236.3402381000001</v>
+      </c>
+      <c r="J24" s="11">
+        <f>I54+$I$31-I24</f>
+        <v>0.45975610000004963</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="9"/>
+        <v>288.50155031103111</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -5967,775 +6083,939 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>I55+$I$31-I25</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="9"/>
+        <v>-6.2751000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="B26" s="1">
+        <v>-801.08458810000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-801.12428990000001</v>
+      </c>
+      <c r="D26">
+        <v>5.1194000000000003E-2</v>
+      </c>
+      <c r="E26">
+        <v>6.0342E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.7503000000000001E-2</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="6"/>
+        <v>-801.07367439220002</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="7"/>
+        <v>-801.0633694078</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="8"/>
+        <v>-801.10678689999997</v>
+      </c>
+      <c r="J26" s="11">
+        <f>I56+$I$31-I26</f>
+        <v>801.09678689999998</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="9"/>
+        <v>502696.24474761897</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="B27" s="1">
+        <v>-1180.247703</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-1180.3209859999999</v>
+      </c>
+      <c r="D27">
+        <v>6.0053000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>7.1704000000000004E-2</v>
+      </c>
+      <c r="F27">
+        <v>2.1728999999999998E-2</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="6"/>
+        <v>-1180.2616115988999</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="7"/>
+        <v>-1180.2486034011001</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="8"/>
+        <v>-1180.2992569999999</v>
+      </c>
+      <c r="J27" s="11">
+        <f>I57+$I$31-I27</f>
+        <v>1180.2892569999999</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="9"/>
+        <v>740643.31166006997</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-819.87389900000005</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-819.94990199999995</v>
+      </c>
+      <c r="D28">
+        <v>6.2081999999999998E-2</v>
+      </c>
+      <c r="E28">
+        <v>7.2983000000000006E-2</v>
+      </c>
+      <c r="F28">
+        <v>2.6755999999999999E-2</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="6"/>
+        <v>-819.8885215265999</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="7"/>
+        <v>-819.87621747339995</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="8"/>
+        <v>-819.92314599999997</v>
+      </c>
+      <c r="J28" s="11">
+        <f>I58+$I$31-I28</f>
+        <v>819.91314599999998</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="9"/>
+        <v>514503.69824646</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="A29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-1639.7828497999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-1639.8615861000001</v>
+      </c>
+      <c r="D29">
+        <v>5.0261E-2</v>
+      </c>
+      <c r="E29">
+        <v>6.3095999999999999E-2</v>
+      </c>
+      <c r="F29">
+        <v>9.7199999999999995E-3</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" ref="G29" si="10">C29+0.9887*D29</f>
+        <v>-1639.8118930493001</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" ref="H29" si="11">C29+D29+E29-D29*0.9887</f>
+        <v>-1639.7979221506998</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" ref="I29" si="12">C29+F29</f>
+        <v>-1639.8518661000001</v>
+      </c>
+      <c r="J29" s="11">
+        <f>I59+$I$31-I29</f>
+        <v>1639.8418661000001</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" ref="K29" si="13">J29*627.51</f>
+        <v>1029017.169396411</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B31" s="13">
         <v>0</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C31" s="13">
         <v>0</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <v>0</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>-0.01</v>
       </c>
-      <c r="G30" s="18">
-        <f t="shared" ref="G30" si="13">C30+0.9887*D30</f>
+      <c r="G31" s="18">
+        <f t="shared" ref="G31" si="14">C31+0.9887*D31</f>
         <v>0</v>
       </c>
-      <c r="H30" s="18">
-        <f t="shared" ref="H30" si="14">C30+D30+E30-0.9887*D30</f>
+      <c r="H31" s="18">
+        <f t="shared" ref="H31" si="15">C31+D31+E31-0.9887*D31</f>
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="I30" s="19">
-        <f t="shared" ref="I30" si="15">C30+F30</f>
+      <c r="I31" s="19">
+        <f t="shared" ref="I31" si="16">C31+F31</f>
         <v>-0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-602.88755470000001</v>
-      </c>
-      <c r="C32" s="1">
-        <v>-602.95625770000004</v>
-      </c>
-      <c r="D32">
-        <v>5.0910999999999998E-2</v>
-      </c>
-      <c r="E32">
-        <v>6.0775999999999997E-2</v>
-      </c>
-      <c r="F32">
-        <v>1.4524E-2</v>
-      </c>
-      <c r="G32" s="10">
-        <f t="shared" ref="G32:G49" si="16">C32+0.9887*D32</f>
-        <v>-602.9059219943</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" ref="H32:H49" si="17">C32+D32+E32-0.9887*D32</f>
-        <v>-602.8949064057</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" ref="I32:I49" si="18">C32+F32</f>
-        <v>-602.94173369999999</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1">
-        <v>-925.85416659999999</v>
+        <v>-602.88755470000001</v>
       </c>
       <c r="C33" s="1">
-        <v>-925.91590780000001</v>
+        <v>-602.95625770000004</v>
       </c>
       <c r="D33">
-        <v>4.8212999999999999E-2</v>
+        <v>5.0910999999999998E-2</v>
       </c>
       <c r="E33">
-        <v>5.8666999999999997E-2</v>
+        <v>6.0775999999999997E-2</v>
       </c>
       <c r="F33">
-        <v>9.9010000000000001E-3</v>
+        <v>1.4524E-2</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="16"/>
-        <v>-925.86823960690003</v>
+        <f t="shared" ref="G33:G50" si="17">C33+0.9887*D33</f>
+        <v>-602.9059219943</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="17"/>
-        <v>-925.85669599309995</v>
+        <f t="shared" ref="H33:H50" si="18">C33+D33+E33-0.9887*D33</f>
+        <v>-602.8949064057</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="18"/>
-        <v>-925.9060068</v>
+        <f t="shared" ref="I33:I50" si="19">C33+F33</f>
+        <v>-602.94173369999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1">
-        <v>-1038.1725246000001</v>
+        <v>-925.85416659999999</v>
       </c>
       <c r="C34" s="1">
-        <v>-1038.2898113000001</v>
+        <v>-925.91590780000001</v>
       </c>
       <c r="D34">
-        <v>5.1611999999999998E-2</v>
+        <v>4.8212999999999999E-2</v>
       </c>
       <c r="E34">
-        <v>6.2891000000000002E-2</v>
+        <v>5.8666999999999997E-2</v>
       </c>
       <c r="F34">
-        <v>1.3917000000000001E-2</v>
+        <v>9.9010000000000001E-3</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="16"/>
-        <v>-1038.2387825156002</v>
+        <f t="shared" si="17"/>
+        <v>-925.86823960690003</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="17"/>
-        <v>-1038.2263370844</v>
+        <f t="shared" si="18"/>
+        <v>-925.85669599309995</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="18"/>
-        <v>-1038.2758943000001</v>
+        <f t="shared" si="19"/>
+        <v>-925.9060068</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1">
-        <v>-800.32516439999995</v>
+        <v>-1038.1725246000001</v>
       </c>
       <c r="C35" s="1">
-        <v>-800.42665629999999</v>
+        <v>-1038.2898113000001</v>
       </c>
       <c r="D35">
-        <v>3.9661000000000002E-2</v>
+        <v>5.1611999999999998E-2</v>
       </c>
       <c r="E35">
-        <v>4.8003999999999998E-2</v>
+        <v>6.2891000000000002E-2</v>
       </c>
       <c r="F35">
-        <v>6.9340000000000001E-3</v>
+        <v>1.3917000000000001E-2</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="16"/>
-        <v>-800.38744346930002</v>
+        <f t="shared" si="17"/>
+        <v>-1038.2387825156002</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="17"/>
-        <v>-800.37820413069994</v>
+        <f t="shared" si="18"/>
+        <v>-1038.2263370844</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="18"/>
-        <v>-800.41972229999999</v>
+        <f t="shared" si="19"/>
+        <v>-1038.2758943000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1">
-        <v>-404.32673699999998</v>
+        <v>-800.32516439999995</v>
       </c>
       <c r="C36" s="1">
-        <v>-404.38082559999998</v>
+        <v>-800.42665629999999</v>
       </c>
       <c r="D36">
-        <v>6.6839999999999997E-2</v>
+        <v>3.9661000000000002E-2</v>
       </c>
       <c r="E36">
-        <v>7.528E-2</v>
+        <v>4.8003999999999998E-2</v>
       </c>
       <c r="F36">
-        <v>3.4348999999999998E-2</v>
+        <v>6.9340000000000001E-3</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="16"/>
-        <v>-404.31474089199997</v>
+        <f t="shared" si="17"/>
+        <v>-800.38744346930002</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="17"/>
-        <v>-404.30479030799995</v>
+        <f t="shared" si="18"/>
+        <v>-800.37820413069994</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="18"/>
-        <v>-404.34647659999996</v>
+        <f t="shared" si="19"/>
+        <v>-800.41972229999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1">
-        <v>-727.29733999999996</v>
+        <v>-404.32673699999998</v>
       </c>
       <c r="C37" s="1">
-        <v>-727.34298779999995</v>
+        <v>-404.38082559999998</v>
       </c>
       <c r="D37">
-        <v>6.4249000000000001E-2</v>
+        <v>6.6839999999999997E-2</v>
       </c>
       <c r="E37">
-        <v>7.3294999999999999E-2</v>
+        <v>7.528E-2</v>
       </c>
       <c r="F37">
-        <v>3.0137000000000001E-2</v>
+        <v>3.4348999999999998E-2</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="16"/>
-        <v>-727.27946481369997</v>
+        <f t="shared" si="17"/>
+        <v>-404.31474089199997</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="17"/>
-        <v>-727.26896678629987</v>
+        <f t="shared" si="18"/>
+        <v>-404.30479030799995</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="18"/>
-        <v>-727.31285079999998</v>
+        <f t="shared" si="19"/>
+        <v>-404.34647659999996</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1">
-        <v>-839.6227255</v>
+        <v>-727.29733999999996</v>
       </c>
       <c r="C38" s="1">
-        <v>-839.72080889999995</v>
+        <v>-727.34298779999995</v>
       </c>
       <c r="D38">
-        <v>6.8552000000000002E-2</v>
+        <v>6.4249000000000001E-2</v>
       </c>
       <c r="E38">
-        <v>7.7972E-2</v>
+        <v>7.3294999999999999E-2</v>
       </c>
       <c r="F38">
-        <v>3.4914000000000001E-2</v>
+        <v>3.0137000000000001E-2</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="16"/>
-        <v>-839.65303153759999</v>
+        <f t="shared" si="17"/>
+        <v>-727.27946481369997</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="17"/>
-        <v>-839.64206226239992</v>
+        <f t="shared" si="18"/>
+        <v>-727.26896678629987</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="18"/>
-        <v>-839.68589489999999</v>
+        <f t="shared" si="19"/>
+        <v>-727.31285079999998</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1">
-        <v>-341.00085259999997</v>
+        <v>-839.6227255</v>
       </c>
       <c r="C39" s="1">
-        <v>-341.05174199999999</v>
+        <v>-839.72080889999995</v>
       </c>
       <c r="D39">
-        <v>5.1218E-2</v>
+        <v>6.8552000000000002E-2</v>
       </c>
       <c r="E39">
-        <v>5.8569000000000003E-2</v>
+        <v>7.7972E-2</v>
       </c>
       <c r="F39">
-        <v>2.0589E-2</v>
+        <v>3.4914000000000001E-2</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="16"/>
-        <v>-341.00110276340001</v>
+        <f t="shared" si="17"/>
+        <v>-839.65303153759999</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="17"/>
-        <v>-340.99259423659998</v>
+        <f t="shared" si="18"/>
+        <v>-839.64206226239992</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="18"/>
-        <v>-341.03115300000002</v>
+        <f t="shared" si="19"/>
+        <v>-839.68589489999999</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1">
-        <v>-1324.9440875</v>
+        <v>-341.00085259999997</v>
       </c>
       <c r="C40" s="1">
-        <v>-1325.0985181999999</v>
+        <v>-341.05174199999999</v>
       </c>
       <c r="D40">
-        <v>6.1031000000000002E-2</v>
+        <v>5.1218E-2</v>
       </c>
       <c r="E40">
-        <v>7.3367000000000002E-2</v>
+        <v>5.8569000000000003E-2</v>
       </c>
       <c r="F40">
-        <v>2.1922000000000001E-2</v>
+        <v>2.0589E-2</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="16"/>
-        <v>-1325.0381768503</v>
+        <f t="shared" si="17"/>
+        <v>-341.00110276340001</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="17"/>
-        <v>-1325.0244615496999</v>
+        <f t="shared" si="18"/>
+        <v>-340.99259423659998</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="18"/>
-        <v>-1325.0765962</v>
+        <f t="shared" si="19"/>
+        <v>-341.03115300000002</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1">
-        <v>-776.28913030000001</v>
+        <v>-1324.9440875</v>
       </c>
       <c r="C41" s="1">
-        <v>-776.39017809999996</v>
+        <v>-1325.0985181999999</v>
       </c>
       <c r="D41">
-        <v>5.1365000000000001E-2</v>
+        <v>6.1031000000000002E-2</v>
       </c>
       <c r="E41">
-        <v>6.0301E-2</v>
+        <v>7.3367000000000002E-2</v>
       </c>
       <c r="F41">
-        <v>1.7888000000000001E-2</v>
+        <v>2.1922000000000001E-2</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="16"/>
-        <v>-776.3393935245</v>
+        <f t="shared" si="17"/>
+        <v>-1325.0381768503</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="17"/>
-        <v>-776.3292966754999</v>
+        <f t="shared" si="18"/>
+        <v>-1325.0244615496999</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="18"/>
-        <v>-776.37229009999999</v>
+        <f t="shared" si="19"/>
+        <v>-1325.0765962</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1">
-        <v>-305.06272919999998</v>
+        <v>-776.28913030000001</v>
       </c>
       <c r="C42" s="1">
-        <v>-305.10621500000002</v>
+        <v>-776.39017809999996</v>
       </c>
       <c r="D42">
-        <v>7.3424000000000003E-2</v>
+        <v>5.1365000000000001E-2</v>
       </c>
       <c r="E42">
-        <v>8.1437999999999997E-2</v>
+        <v>6.0301E-2</v>
       </c>
       <c r="F42">
-        <v>4.1555000000000002E-2</v>
+        <v>1.7888000000000001E-2</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="16"/>
-        <v>-305.03362069120004</v>
+        <f t="shared" si="17"/>
+        <v>-776.3393935245</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="17"/>
-        <v>-305.02394730880002</v>
+        <f t="shared" si="18"/>
+        <v>-776.3292966754999</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="18"/>
-        <v>-305.06466</v>
+        <f t="shared" si="19"/>
+        <v>-776.37229009999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1">
-        <v>-628.03742099999999</v>
+        <v>-305.06272919999998</v>
       </c>
       <c r="C43" s="1">
-        <v>-628.0720053</v>
+        <v>-305.10621500000002</v>
       </c>
       <c r="D43">
-        <v>7.1053000000000005E-2</v>
+        <v>7.3424000000000003E-2</v>
       </c>
       <c r="E43">
-        <v>7.9660999999999996E-2</v>
+        <v>8.1437999999999997E-2</v>
       </c>
       <c r="F43">
-        <v>3.7628000000000002E-2</v>
+        <v>4.1555000000000002E-2</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="16"/>
-        <v>-628.00175519890001</v>
+        <f t="shared" si="17"/>
+        <v>-305.03362069120004</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="17"/>
-        <v>-627.99154140109999</v>
+        <f t="shared" si="18"/>
+        <v>-305.02394730880002</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="18"/>
-        <v>-628.03437729999996</v>
+        <f t="shared" si="19"/>
+        <v>-305.06466</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1">
-        <v>-740.36607590000006</v>
+        <v>-628.03742099999999</v>
       </c>
       <c r="C44" s="1">
-        <v>-740.45381689999999</v>
+        <v>-628.0720053</v>
       </c>
       <c r="D44">
-        <v>7.5634000000000007E-2</v>
+        <v>7.1053000000000005E-2</v>
       </c>
       <c r="E44">
-        <v>8.4292000000000006E-2</v>
+        <v>7.9660999999999996E-2</v>
       </c>
       <c r="F44">
-        <v>4.3631999999999997E-2</v>
+        <v>3.7628000000000002E-2</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="16"/>
-        <v>-740.37903756419996</v>
+        <f t="shared" si="17"/>
+        <v>-628.00175519890001</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="17"/>
-        <v>-740.36867023579998</v>
+        <f t="shared" si="18"/>
+        <v>-627.99154140109999</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="18"/>
-        <v>-740.41018489999999</v>
+        <f t="shared" si="19"/>
+        <v>-628.03437729999996</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="1">
-        <v>-503.60207259999999</v>
+        <v>-740.36607590000006</v>
       </c>
       <c r="C45" s="1">
-        <v>-503.66427700000003</v>
+        <v>-740.45381689999999</v>
       </c>
       <c r="D45">
-        <v>5.9353000000000003E-2</v>
+        <v>7.5634000000000007E-2</v>
       </c>
       <c r="E45">
-        <v>6.8509E-2</v>
+        <v>8.4292000000000006E-2</v>
       </c>
       <c r="F45">
-        <v>2.4865000000000002E-2</v>
+        <v>4.3631999999999997E-2</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="16"/>
-        <v>-503.60559468890006</v>
+        <f t="shared" si="17"/>
+        <v>-740.37903756419996</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="17"/>
-        <v>-503.59509731110001</v>
+        <f t="shared" si="18"/>
+        <v>-740.36867023579998</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="18"/>
-        <v>-503.63941200000005</v>
+        <f t="shared" si="19"/>
+        <v>-740.41018489999999</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1">
-        <v>-826.57161470000005</v>
+        <v>-503.60207259999999</v>
       </c>
       <c r="C46" s="1">
-        <v>-826.62590290000003</v>
+        <v>-503.66427700000003</v>
       </c>
       <c r="D46">
-        <v>5.6721000000000001E-2</v>
+        <v>5.9353000000000003E-2</v>
       </c>
       <c r="E46">
-        <v>6.6483E-2</v>
+        <v>6.8509E-2</v>
       </c>
       <c r="F46">
-        <v>2.0688999999999999E-2</v>
+        <v>2.4865000000000002E-2</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="16"/>
-        <v>-826.56982284729997</v>
+        <f t="shared" si="17"/>
+        <v>-503.60559468890006</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="17"/>
-        <v>-826.5587789527001</v>
+        <f t="shared" si="18"/>
+        <v>-503.59509731110001</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="18"/>
-        <v>-826.60521390000008</v>
+        <f t="shared" si="19"/>
+        <v>-503.63941200000005</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1">
-        <v>-938.89525960000003</v>
+        <v>-826.57161470000005</v>
       </c>
       <c r="C47" s="1">
-        <v>-939.00134560000004</v>
+        <v>-826.62590290000003</v>
       </c>
       <c r="D47">
-        <v>6.0812999999999999E-2</v>
+        <v>5.6721000000000001E-2</v>
       </c>
       <c r="E47">
-        <v>7.0968000000000003E-2</v>
+        <v>6.6483E-2</v>
       </c>
       <c r="F47">
-        <v>2.5871000000000002E-2</v>
+        <v>2.0688999999999999E-2</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="16"/>
-        <v>-938.94121978690009</v>
+        <f t="shared" si="17"/>
+        <v>-826.56982284729997</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="17"/>
-        <v>-938.92969041309993</v>
+        <f t="shared" si="18"/>
+        <v>-826.5587789527001</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="18"/>
-        <v>-938.97547459999998</v>
+        <f t="shared" si="19"/>
+        <v>-826.60521390000008</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
-        <v>-643.7086438</v>
+        <v>-938.89525960000003</v>
       </c>
       <c r="C48" s="1">
-        <v>-643.78707810000003</v>
+        <v>-939.00134560000004</v>
       </c>
       <c r="D48">
-        <v>3.6259E-2</v>
+        <v>6.0812999999999999E-2</v>
       </c>
       <c r="E48">
-        <v>4.3735000000000003E-2</v>
+        <v>7.0968000000000003E-2</v>
       </c>
       <c r="F48">
-        <v>4.7800000000000004E-3</v>
+        <v>2.5871000000000002E-2</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="16"/>
-        <v>-643.75122882670007</v>
+        <f t="shared" si="17"/>
+        <v>-938.94121978690009</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="17"/>
-        <v>-643.74293337330005</v>
+        <f t="shared" si="18"/>
+        <v>-938.92969041309993</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="18"/>
-        <v>-643.78229810000005</v>
+        <f t="shared" si="19"/>
+        <v>-938.97547459999998</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1">
-        <v>-356.90564010000003</v>
+        <v>-643.7086438</v>
       </c>
       <c r="C49" s="1">
-        <v>-356.95878329999999</v>
+        <v>-643.78707810000003</v>
       </c>
       <c r="D49">
-        <v>3.9057000000000001E-2</v>
+        <v>3.6259E-2</v>
       </c>
       <c r="E49">
-        <v>4.6071000000000001E-2</v>
+        <v>4.3735000000000003E-2</v>
       </c>
       <c r="F49">
-        <v>8.8909999999999996E-3</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="16"/>
-        <v>-356.92016764409999</v>
+        <f t="shared" si="17"/>
+        <v>-643.75122882670007</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="17"/>
-        <v>-356.9122709559</v>
+        <f t="shared" si="18"/>
+        <v>-643.74293337330005</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="18"/>
-        <v>-356.94989229999999</v>
+        <f t="shared" si="19"/>
+        <v>-643.78229810000005</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-356.90564010000003</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-356.95878329999999</v>
+      </c>
+      <c r="D50">
+        <v>3.9057000000000001E-2</v>
+      </c>
+      <c r="E50">
+        <v>4.6071000000000001E-2</v>
+      </c>
+      <c r="F50">
+        <v>8.8909999999999996E-3</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="17"/>
+        <v>-356.92016764409999</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="18"/>
+        <v>-356.9122709559</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="19"/>
+        <v>-356.94989229999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="54">
         <v>-720.17887470000005</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51" s="54">
         <v>-720.25983689999998</v>
       </c>
-      <c r="D50">
+      <c r="D51" s="43">
         <v>5.8647999999999999E-2</v>
       </c>
-      <c r="E50">
+      <c r="E51" s="43">
         <v>6.8691000000000002E-2</v>
       </c>
-      <c r="F50">
+      <c r="F51" s="43">
         <v>2.4094999999999998E-2</v>
       </c>
-      <c r="G50" s="10">
-        <f t="shared" ref="G50:G53" si="19">C50+0.9887*D50</f>
+      <c r="G51" s="43">
+        <f t="shared" ref="G51:G54" si="20">C51+0.9887*D51</f>
         <v>-720.2018516224</v>
       </c>
-      <c r="H50" s="10">
-        <f t="shared" ref="H50:H53" si="20">C50+D50+E50-0.9887*D50</f>
+      <c r="H51" s="43">
+        <f t="shared" ref="H51:H54" si="21">C51+D51+E51-0.9887*D51</f>
         <v>-720.19048317760007</v>
       </c>
-      <c r="I50" s="10">
-        <f t="shared" ref="I50:I53" si="21">C50+F50</f>
+      <c r="I51" s="43">
+        <f t="shared" ref="I51:I54" si="22">C51+F51</f>
         <v>-720.23574189999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>237</v>
       </c>
-      <c r="G51" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
+      <c r="G52" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I51" s="10">
+      <c r="H52" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="I52" s="10">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>250</v>
       </c>
-      <c r="G52" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="10">
+      <c r="G53" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I52" s="10">
+      <c r="H53" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>251</v>
-      </c>
-      <c r="B53" s="1">
-        <v>-1235.7780826000001</v>
-      </c>
-      <c r="C53">
-        <v>-1235.8683639999999</v>
-      </c>
-      <c r="D53">
-        <v>3.6163000000000001E-2</v>
-      </c>
-      <c r="E53">
-        <v>4.7366999999999999E-2</v>
-      </c>
-      <c r="F53">
-        <v>-2.1180000000000001E-3</v>
-      </c>
-      <c r="G53" s="10">
-        <f t="shared" si="19"/>
-        <v>-1235.8326096419</v>
-      </c>
-      <c r="H53" s="10">
-        <f t="shared" si="20"/>
-        <v>-1235.8205883580999</v>
-      </c>
       <c r="I53" s="10">
-        <f t="shared" si="21"/>
-        <v>-1235.870482</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-1235.7780826000001</v>
+      </c>
+      <c r="C54">
+        <v>-1235.8683639999999</v>
+      </c>
+      <c r="D54">
+        <v>3.6163000000000001E-2</v>
+      </c>
+      <c r="E54">
+        <v>4.7366999999999999E-2</v>
+      </c>
+      <c r="F54">
+        <v>-2.1180000000000001E-3</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="20"/>
+        <v>-1235.8326096419</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="21"/>
+        <v>-1235.8205883580999</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="22"/>
+        <v>-1235.870482</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6750,7 +7030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -6808,14 +7088,14 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="42">
         <v>-724.09520999999995</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="42">
         <v>-724.12805300000002</v>
       </c>
-      <c r="J2" s="48">
-        <f>I3+'Acidez-H2O'!I30-'g4'!I2</f>
+      <c r="J2" s="42">
+        <f>I3+'Acidez-H2O'!I31-'g4'!I2</f>
         <v>0.46986000000003969</v>
       </c>
       <c r="K2">
@@ -6827,10 +7107,10 @@
       <c r="A3" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="42">
         <v>-723.61626200000001</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="42">
         <v>-723.64819299999999</v>
       </c>
     </row>
@@ -7181,7 +7461,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -7193,7 +7473,7 @@
       <c r="D2" s="23">
         <v>4.6652371103000002E-2</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="50" t="s">
         <v>159</v>
       </c>
       <c r="F2" t="s">
@@ -7207,7 +7487,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
+      <c r="A3" s="50"/>
       <c r="B3" t="s">
         <v>103</v>
       </c>
@@ -7217,7 +7497,7 @@
       <c r="D3" s="23">
         <v>1.8516272478000001E-2</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="50"/>
       <c r="F3" t="s">
         <v>189</v>
       </c>
@@ -7229,7 +7509,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -7255,7 +7535,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="49"/>
       <c r="B5" t="s">
         <v>103</v>
       </c>
@@ -7265,7 +7545,7 @@
       <c r="D5" s="23">
         <v>2.0639392600999999E-2</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="49" t="s">
         <v>161</v>
       </c>
       <c r="F5" t="s">
@@ -7279,7 +7559,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="49" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -7291,7 +7571,7 @@
       <c r="D6" s="23">
         <v>5.6526825358E-2</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="49"/>
       <c r="F6" t="s">
         <v>120</v>
       </c>
@@ -7303,7 +7583,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="49"/>
       <c r="B7" t="s">
         <v>111</v>
       </c>
@@ -7313,7 +7593,7 @@
       <c r="D7" s="23">
         <v>1.6308193131000001E-2</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="49" t="s">
         <v>162</v>
       </c>
       <c r="F7" t="s">
@@ -7327,7 +7607,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="49" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -7339,7 +7619,7 @@
       <c r="D8" s="23">
         <v>5.6821659750000003E-2</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="49"/>
       <c r="F8" t="s">
         <v>218</v>
       </c>
@@ -7351,7 +7631,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="49"/>
       <c r="B9" t="s">
         <v>151</v>
       </c>
@@ -7361,7 +7641,7 @@
       <c r="D9" s="23">
         <v>1.3228378496E-2</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="49" t="s">
         <v>163</v>
       </c>
       <c r="F9" t="s">
@@ -7375,7 +7655,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -7387,7 +7667,7 @@
       <c r="D10" s="23">
         <v>4.2506905206999998E-2</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="49"/>
       <c r="F10" t="s">
         <v>133</v>
       </c>
@@ -7399,7 +7679,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="49"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
@@ -7423,7 +7703,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="49" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
@@ -7435,7 +7715,7 @@
       <c r="D12" s="23">
         <v>2.3559714453000001E-2</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="49" t="s">
         <v>165</v>
       </c>
       <c r="F12" t="s">
@@ -7449,7 +7729,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="49"/>
       <c r="B13" t="s">
         <v>118</v>
       </c>
@@ -7459,7 +7739,7 @@
       <c r="D13" s="23">
         <v>2.6325699235999998E-2</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="49"/>
       <c r="F13" t="s">
         <v>189</v>
       </c>
@@ -7471,7 +7751,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="49" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
@@ -7483,7 +7763,7 @@
       <c r="D14" s="23">
         <v>5.2053841881999997E-2</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="49"/>
       <c r="F14" t="s">
         <v>115</v>
       </c>
@@ -7495,7 +7775,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="49"/>
       <c r="B15" t="s">
         <v>123</v>
       </c>
@@ -7505,7 +7785,7 @@
       <c r="D15" s="23">
         <v>2.0146330630999999E-2</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="49" t="s">
         <v>166</v>
       </c>
       <c r="F15" t="s">
@@ -7519,7 +7799,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="49" t="s">
         <v>61</v>
       </c>
       <c r="B16" t="s">
@@ -7531,7 +7811,7 @@
       <c r="D16" s="23">
         <v>4.1633113015999999E-2</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="49"/>
       <c r="F16" t="s">
         <v>209</v>
       </c>
@@ -7543,7 +7823,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="49"/>
       <c r="B17" t="s">
         <v>141</v>
       </c>
@@ -7553,7 +7833,7 @@
       <c r="D17" s="23">
         <v>1.5754432137999999E-2</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="51" t="s">
         <v>167</v>
       </c>
       <c r="F17" s="27" t="s">
@@ -7567,7 +7847,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -7579,7 +7859,7 @@
       <c r="D18" s="33">
         <v>6.7529488887E-2</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
@@ -7591,7 +7871,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="30" t="s">
         <v>137</v>
       </c>
@@ -7601,7 +7881,7 @@
       <c r="D19" s="34">
         <v>1.9594640145000002E-2</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="30" t="s">
         <v>206</v>
       </c>
@@ -7613,7 +7893,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
@@ -7625,7 +7905,7 @@
       <c r="D20" s="23">
         <v>5.1805136710999997E-2</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="49" t="s">
         <v>168</v>
       </c>
       <c r="F20" t="s">
@@ -7642,7 +7922,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="49"/>
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -7652,7 +7932,7 @@
       <c r="D21" s="23">
         <v>1.7678524639999998E-2</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="49"/>
       <c r="F21" t="s">
         <v>199</v>
       </c>
@@ -7671,7 +7951,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B22" t="s">
@@ -7683,7 +7963,7 @@
       <c r="D22" s="23">
         <v>3.9466379422999999E-2</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="49" t="s">
         <v>169</v>
       </c>
       <c r="F22" t="s">
@@ -7704,7 +7984,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="49"/>
       <c r="B23" t="s">
         <v>129</v>
       </c>
@@ -7714,7 +7994,7 @@
       <c r="D23" s="23">
         <v>2.6447145485999999E-2</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="49"/>
       <c r="F23" t="s">
         <v>197</v>
       </c>
@@ -7726,7 +8006,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B24" t="s">
@@ -7752,7 +8032,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+      <c r="A25" s="49"/>
       <c r="B25" t="s">
         <v>104</v>
       </c>
@@ -7762,7 +8042,7 @@
       <c r="D25" s="23">
         <v>2.5867070440999999E-2</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="49" t="s">
         <v>171</v>
       </c>
       <c r="F25" t="s">
@@ -7776,7 +8056,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="49" t="s">
         <v>66</v>
       </c>
       <c r="B26" t="s">
@@ -7788,7 +8068,7 @@
       <c r="D26" s="23">
         <v>4.7364009725000003E-2</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="49"/>
       <c r="F26" t="s">
         <v>192</v>
       </c>
@@ -7800,7 +8080,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="49"/>
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -7810,7 +8090,7 @@
       <c r="D27" s="23">
         <v>2.0802877849E-2</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="49"/>
       <c r="F27" t="s">
         <v>118</v>
       </c>
@@ -7822,7 +8102,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="49" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
@@ -7834,7 +8114,7 @@
       <c r="D28" s="23">
         <v>4.4461058295000001E-2</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="49" t="s">
         <v>172</v>
       </c>
       <c r="F28" t="s">
@@ -7848,7 +8128,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="49"/>
       <c r="B29" t="s">
         <v>120</v>
       </c>
@@ -7858,7 +8138,7 @@
       <c r="D29" s="23">
         <v>2.0830363644E-2</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="49"/>
       <c r="F29" t="s">
         <v>189</v>
       </c>
@@ -7870,7 +8150,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="49" t="s">
         <v>68</v>
       </c>
       <c r="B30" t="s">
@@ -7896,7 +8176,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="49"/>
       <c r="B31" t="s">
         <v>103</v>
       </c>
@@ -7906,7 +8186,7 @@
       <c r="D31" s="23">
         <v>2.1864158854999999E-2</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="51" t="s">
         <v>174</v>
       </c>
       <c r="F31" s="27" t="s">
@@ -7920,7 +8200,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -7932,7 +8212,7 @@
       <c r="D32" s="33">
         <v>5.3859563021999998E-2</v>
       </c>
-      <c r="E32" s="47"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="10" t="s">
         <v>103</v>
       </c>
@@ -7944,7 +8224,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="30" t="s">
         <v>111</v>
       </c>
@@ -7954,7 +8234,7 @@
       <c r="D33" s="34">
         <v>1.8988879314E-2</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="30" t="s">
         <v>120</v>
       </c>
@@ -7966,7 +8246,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="49" t="s">
         <v>70</v>
       </c>
       <c r="B34" t="s">
@@ -7978,7 +8258,7 @@
       <c r="D34" s="23">
         <v>5.0631274116999997E-2</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="49" t="s">
         <v>175</v>
       </c>
       <c r="F34" t="s">
@@ -7992,7 +8272,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="49"/>
       <c r="B35" t="s">
         <v>107</v>
       </c>
@@ -8002,7 +8282,7 @@
       <c r="D35" s="23">
         <v>1.9195216830999999E-2</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="49"/>
       <c r="F35" t="s">
         <v>179</v>
       </c>
@@ -8014,7 +8294,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="49" t="s">
         <v>71</v>
       </c>
       <c r="B36" t="s">
@@ -8026,7 +8306,7 @@
       <c r="D36" s="23">
         <v>4.8034379889999999E-2</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="49" t="s">
         <v>176</v>
       </c>
       <c r="F36" t="s">
@@ -8040,7 +8320,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
+      <c r="A37" s="49"/>
       <c r="B37" t="s">
         <v>107</v>
       </c>
@@ -8050,7 +8330,7 @@
       <c r="D37" s="23">
         <v>1.5150199381E-2</v>
       </c>
-      <c r="E37" s="43"/>
+      <c r="E37" s="49"/>
       <c r="F37" t="s">
         <v>177</v>
       </c>
@@ -8063,15 +8343,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E28:E29"/>
@@ -8085,16 +8366,15 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -4947,8 +4947,8 @@
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Acidez" sheetId="1" r:id="rId1"/>
@@ -1087,12 +1087,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1153,27 +1155,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1366,12 +1372,6 @@
                 <c:pt idx="1">
                   <c:v>312.5</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0">
-                  <c:v>299.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>299.8</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>302.2</c:v>
                 </c:pt>
@@ -1397,15 +1397,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1573903328"/>
-        <c:axId val="-1602345792"/>
+        <c:axId val="-1154451328"/>
+        <c:axId val="-1154448208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1573903328"/>
+        <c:axId val="-1154451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="330.0"/>
-          <c:min val="280.0"/>
+          <c:max val="320.0"/>
+          <c:min val="300.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1521,14 +1521,16 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1602345792"/>
+        <c:crossAx val="-1154448208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1602345792"/>
+        <c:axId val="-1154448208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350.0"/>
+          <c:min val="270.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1644,7 +1646,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1573903328"/>
+        <c:crossAx val="-1154451328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2253,16 +2255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>910166</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>770468</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>681568</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2607,10 +2609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2626,7 @@
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2652,15 +2654,15 @@
       <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>321.85650600756003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>318.95281612064571</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2842,9 +2844,7 @@
         <f t="shared" si="5"/>
         <v>292.86845515204203</v>
       </c>
-      <c r="L5" s="8">
-        <v>299.5</v>
-      </c>
+      <c r="L5" s="8"/>
       <c r="M5">
         <f t="shared" si="1"/>
         <v>0.47768843079995804</v>
@@ -2854,7 +2854,7 @@
         <v>299.75426721128167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2893,9 +2893,6 @@
         <f t="shared" si="5"/>
         <v>293.5696348260409</v>
       </c>
-      <c r="L6">
-        <v>299.8</v>
-      </c>
       <c r="M6">
         <f t="shared" si="1"/>
         <v>0.47917585330003476</v>
@@ -2904,8 +2901,11 @@
         <f t="shared" si="6"/>
         <v>300.68763970430479</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q6" s="55">
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2952,8 +2952,11 @@
         <f t="shared" si="6"/>
         <v>335.4755504422393</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q7" s="56">
+        <v>299.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>331.40684255744014</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>310.17151472479463</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>335.37564852846515</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>288.20392752628288</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>310.05691564827868</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>346.27974628691499</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>337.18914841238791</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>318.94733814654563</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4947,8 +4950,8 @@
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4988,13 +4991,13 @@
       <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5069,7 +5072,7 @@
         <v>-603.44420119999995</v>
       </c>
       <c r="J3" s="1">
-        <f>I33+$I$31-I3</f>
+        <f t="shared" ref="J3:J29" si="0">I33+$I$31-I3</f>
         <v>0.49246749999997519</v>
       </c>
       <c r="K3">
@@ -5077,7 +5080,7 @@
         <v>309.02828092498441</v>
       </c>
       <c r="M3">
-        <f>H33+$H$31-H3</f>
+        <f t="shared" ref="M3:M22" si="1">H33+$H$31-H3</f>
         <v>0.50563814229997206</v>
       </c>
       <c r="N3">
@@ -5105,31 +5108,31 @@
         <v>2.1052999999999999E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G21" si="0">C4+0.9887*D4</f>
+        <f t="shared" ref="G4:G21" si="2">C4+0.9887*D4</f>
         <v>-926.36306404749996</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H21" si="1">C4+D4+E4-D4*0.9887</f>
+        <f t="shared" ref="H4:H21" si="3">C4+D4+E4-D4*0.9887</f>
         <v>-926.35107755249987</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I21" si="2">C4+F4</f>
+        <f t="shared" ref="I4:I21" si="4">C4+F4</f>
         <v>-926.39942979999989</v>
       </c>
       <c r="J4" s="1">
-        <f>I34+$I$31-I4</f>
+        <f t="shared" si="0"/>
         <v>0.48342299999990246</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K20" si="3">J4*627.51</f>
+        <f t="shared" ref="K4:K20" si="5">J4*627.51</f>
         <v>303.35276672993876</v>
       </c>
       <c r="M4">
-        <f>H34+$H$31-H4</f>
+        <f t="shared" si="1"/>
         <v>0.49674155939987941</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N22" si="4">M4*627.51</f>
+        <f t="shared" ref="N4:N22" si="6">M4*627.51</f>
         <v>311.71029593901829</v>
       </c>
     </row>
@@ -5153,31 +5156,31 @@
         <v>2.6376E-2</v>
       </c>
       <c r="G5">
+        <f t="shared" si="2"/>
+        <v>-1038.7152762726</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-1038.7024371273999</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>-1038.7516846999999</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>-1038.7152762726</v>
-      </c>
-      <c r="H5">
+        <v>0.46579039999983252</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>292.2881339038949</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="1"/>
-        <v>-1038.7024371273999</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="2"/>
-        <v>-1038.7516846999999</v>
-      </c>
-      <c r="J5" s="1">
-        <f>I35+$I$31-I5</f>
-        <v>0.46579039999983252</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>292.2881339038949</v>
-      </c>
-      <c r="M5">
-        <f>H35+$H$31-H5</f>
         <v>0.4784600429998136</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300.23846158281304</v>
       </c>
     </row>
@@ -5201,31 +5204,31 @@
         <v>1.9279000000000001E-2</v>
       </c>
       <c r="G6">
+        <f t="shared" si="2"/>
+        <v>-800.86501947490001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-800.85537592510002</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>-800.89673070000003</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>-800.86501947490001</v>
-      </c>
-      <c r="H6">
+        <v>0.46700840000005428</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>293.05244108403406</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="1"/>
-        <v>-800.85537592510002</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>-800.89673070000003</v>
-      </c>
-      <c r="J6" s="1">
-        <f>I36+$I$31-I6</f>
-        <v>0.46700840000005428</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>293.05244108403406</v>
-      </c>
-      <c r="M6">
-        <f>H36+$H$31-H6</f>
         <v>0.47953179440003169</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300.91099630396388</v>
       </c>
     </row>
@@ -5249,31 +5252,31 @@
         <v>4.7967000000000003E-2</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
+        <v>-404.83603215380003</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-404.82564304620001</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>-404.86738459999998</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>-404.83603215380003</v>
-      </c>
-      <c r="H7">
+        <v>0.51090800000002901</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>320.59987908001818</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="1"/>
-        <v>-404.82564304620001</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="2"/>
-        <v>-404.86738459999998</v>
-      </c>
-      <c r="J7" s="1">
-        <f>I37+$I$31-I7</f>
-        <v>0.51090800000002901</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>320.59987908001818</v>
-      </c>
-      <c r="M7">
-        <f>H37+$H$31-H7</f>
         <v>0.52321273820007264</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>328.32122534792757</v>
       </c>
     </row>
@@ -5297,31 +5300,31 @@
         <v>4.0526E-2</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-727.79126195089998</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-727.78025844909996</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>-727.82399169999997</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>-727.79126195089998</v>
-      </c>
-      <c r="H8">
+        <v>0.50114089999999578</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>314.47092615899737</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>-727.78025844909996</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>-727.82399169999997</v>
-      </c>
-      <c r="J8" s="1">
-        <f>I38+$I$31-I8</f>
-        <v>0.50114089999999578</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>314.47092615899737</v>
-      </c>
-      <c r="M8">
-        <f>H38+$H$31-H8</f>
         <v>0.5136516628000436</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>322.32155492365536</v>
       </c>
     </row>
@@ -5345,31 +5348,31 @@
         <v>4.4823000000000002E-2</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-840.14460669419998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-840.13283170579996</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>-840.17861670000002</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>-840.14460669419998</v>
-      </c>
-      <c r="H9">
+        <v>0.48272180000003573</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>302.91275671802242</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>-840.13283170579996</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
-        <v>-840.17861670000002</v>
-      </c>
-      <c r="J9" s="1">
-        <f>I39+$I$31-I9</f>
-        <v>0.48272180000003573</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>302.91275671802242</v>
-      </c>
-      <c r="M9">
-        <f>H39+$H$31-H9</f>
         <v>0.49312944339999376</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>309.4436570279301</v>
       </c>
     </row>
@@ -5393,31 +5396,31 @@
         <v>3.4030999999999999E-2</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
+        <v>-341.52105274029998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-341.51195985970003</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>-341.55062579999998</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>-341.52105274029998</v>
-      </c>
-      <c r="H10">
+        <v>0.50947279999996908</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>319.69927672798059</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="1"/>
-        <v>-341.51195985970003</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>-341.55062579999998</v>
-      </c>
-      <c r="J10" s="1">
-        <f>I40+$I$31-I10</f>
-        <v>0.50947279999996908</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>319.69927672798059</v>
-      </c>
-      <c r="M10">
-        <f>H40+$H$31-H10</f>
         <v>0.52172562310005333</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>327.38804575151448</v>
       </c>
     </row>
@@ -5441,31 +5444,31 @@
         <v>3.5609000000000002E-2</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
+        <v>-1325.5015751187</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-1325.4876420813002</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>-1325.5382391000001</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>-1325.5015751187</v>
-      </c>
-      <c r="H11">
+        <v>0.45164290000002438</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>283.41043617901528</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="1"/>
-        <v>-1325.4876420813002</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="2"/>
-        <v>-1325.5382391000001</v>
-      </c>
-      <c r="J11" s="1">
-        <f>I41+$I$31-I11</f>
-        <v>0.45164290000002438</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>283.41043617901528</v>
-      </c>
-      <c r="M11">
-        <f>H41+$H$31-H11</f>
         <v>0.46554053160025433</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>292.13133898447558</v>
       </c>
     </row>
@@ -5489,31 +5492,31 @@
         <v>3.1356000000000002E-2</v>
       </c>
       <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-776.83085192240003</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-776.82060747759999</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>-776.86242470000002</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>-776.83085192240003</v>
-      </c>
-      <c r="H12">
+        <v>0.48013460000004216</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>301.28926284602647</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="1"/>
-        <v>-776.82060747759999</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="2"/>
-        <v>-776.86242470000002</v>
-      </c>
-      <c r="J12" s="1">
-        <f>I42+$I$31-I12</f>
-        <v>0.48013460000004216</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>301.28926284602647</v>
-      </c>
-      <c r="M12">
-        <f>H42+$H$31-H12</f>
         <v>0.49367080210004133</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>309.78336502579691</v>
       </c>
     </row>
@@ -5537,31 +5540,31 @@
         <v>5.6416000000000001E-2</v>
       </c>
       <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-305.56900455380003</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-305.55897924620001</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>-305.5988289</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>-305.56900455380003</v>
-      </c>
-      <c r="H13">
+        <v>0.52416890000000649</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>328.92122643900404</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
-        <v>-305.55897924620001</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="2"/>
-        <v>-305.5988289</v>
-      </c>
-      <c r="J13" s="1">
-        <f>I43+$I$31-I13</f>
-        <v>0.52416890000000649</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>328.92122643900404</v>
-      </c>
-      <c r="M13">
-        <f>H43+$H$31-H13</f>
         <v>0.53739193740000246</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>337.21881463787554</v>
       </c>
     </row>
@@ -5585,31 +5588,31 @@
         <v>4.8321000000000003E-2</v>
       </c>
       <c r="G14">
+        <f t="shared" si="2"/>
+        <v>-628.52187603100003</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-628.51116136899998</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>-628.5535112</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>-628.52187603100003</v>
-      </c>
-      <c r="H14">
+        <v>0.50913390000005165</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>319.4866135890324</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="1"/>
-        <v>-628.51116136899998</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="2"/>
-        <v>-628.5535112</v>
-      </c>
-      <c r="J14" s="1">
-        <f>I44+$I$31-I14</f>
-        <v>0.50913390000005165</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>319.4866135890324</v>
-      </c>
-      <c r="M14">
-        <f>H44+$H$31-H14</f>
         <v>0.52197996789993795</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>327.54764965689003</v>
       </c>
     </row>
@@ -5633,31 +5636,31 @@
         <v>5.4177999999999997E-2</v>
       </c>
       <c r="G15">
+        <f t="shared" si="2"/>
+        <v>-740.88183160400001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-740.87065759600011</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>-740.91374960000007</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>-740.88183160400001</v>
-      </c>
-      <c r="H15">
+        <v>0.49356470000009267</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>309.71678489705818</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
-        <v>-740.87065759600011</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>-740.91374960000007</v>
-      </c>
-      <c r="J15" s="1">
-        <f>I45+$I$31-I15</f>
-        <v>0.49356470000009267</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>309.71678489705818</v>
-      </c>
-      <c r="M15">
-        <f>H45+$H$31-H15</f>
         <v>0.50434736020008586</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>316.48301199915585</v>
       </c>
     </row>
@@ -5681,31 +5684,31 @@
         <v>3.8129999999999997E-2</v>
       </c>
       <c r="G16">
+        <f t="shared" si="2"/>
+        <v>-504.11779407770001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-504.10681892230002</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>-504.15137349999998</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>-504.11779407770001</v>
-      </c>
-      <c r="H16">
+        <v>0.50196149999993622</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>314.98586086495999</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
-        <v>-504.10681892230002</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>-504.15137349999998</v>
-      </c>
-      <c r="J16" s="1">
-        <f>I46+$I$31-I16</f>
-        <v>0.50196149999993622</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>314.98586086495999</v>
-      </c>
-      <c r="M16">
-        <f>H46+$H$31-H16</f>
         <v>0.5140816112000266</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>322.59135184412867</v>
       </c>
     </row>
@@ -5729,31 +5732,31 @@
         <v>3.0917E-2</v>
       </c>
       <c r="G17">
+        <f t="shared" si="2"/>
+        <v>-827.07216791890005</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-827.06063708109991</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>-827.10695299999998</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>-827.07216791890005</v>
-      </c>
-      <c r="H17">
+        <v>0.49173909999990428</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>308.57120264093993</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
-        <v>-827.06063708109991</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="2"/>
-        <v>-827.10695299999998</v>
-      </c>
-      <c r="J17" s="1">
-        <f>I47+$I$31-I17</f>
-        <v>0.49173909999990428</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>308.57120264093993</v>
-      </c>
-      <c r="M17">
-        <f>H47+$H$31-H17</f>
         <v>0.50421812839977065</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>316.40191775214009</v>
       </c>
     </row>
@@ -5777,31 +5780,31 @@
         <v>3.5359000000000002E-2</v>
       </c>
       <c r="G18">
+        <f t="shared" si="2"/>
+        <v>-939.42533539649992</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-939.41298260349993</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>-939.46096999999997</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>-939.42533539649992</v>
-      </c>
-      <c r="H18">
+        <v>0.47549539999999979</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>298.37811845399989</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="1"/>
-        <v>-939.41298260349993</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="2"/>
-        <v>-939.46096999999997</v>
-      </c>
-      <c r="J18" s="1">
-        <f>I48+$I$31-I18</f>
-        <v>0.47549539999999979</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>298.37811845399989</v>
-      </c>
-      <c r="M18">
-        <f>H48+$H$31-H18</f>
         <v>0.48565219039994645</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>304.7516059978704</v>
       </c>
     </row>
@@ -5825,31 +5828,31 @@
         <v>1.7611000000000002E-2</v>
       </c>
       <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-644.24182358090002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-644.23313441910011</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>-644.27186100000006</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>-644.24182358090002</v>
-      </c>
-      <c r="H19">
+        <v>0.479562900000019</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>300.93051537901192</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
-        <v>-644.23313441910011</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="2"/>
-        <v>-644.27186100000006</v>
-      </c>
-      <c r="J19" s="1">
-        <f>I49+$I$31-I19</f>
-        <v>0.479562900000019</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>300.93051537901192</v>
-      </c>
-      <c r="M19">
-        <f>H49+$H$31-H19</f>
         <v>0.49256104580001647</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>309.08698184996831</v>
       </c>
     </row>
@@ -5873,31 +5876,31 @@
         <v>2.1347000000000001E-2</v>
       </c>
       <c r="G20">
+        <f t="shared" si="2"/>
+        <v>-357.42358822169996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-357.4150983783</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>-357.45306929999998</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>-357.42358822169996</v>
-      </c>
-      <c r="H20">
+        <v>0.49317700000000286</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>309.47349927000181</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="1"/>
-        <v>-357.4150983783</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="2"/>
-        <v>-357.45306929999998</v>
-      </c>
-      <c r="J20" s="1">
-        <f>I50+$I$31-I20</f>
-        <v>0.49317700000000286</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>309.47349927000181</v>
-      </c>
-      <c r="M20">
-        <f>H50+$H$31-H20</f>
         <v>0.50518742240001302</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>317.01015943023219</v>
       </c>
     </row>
@@ -5905,10 +5908,10 @@
       <c r="A21" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="48">
         <v>-720.74316099999999</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="48">
         <v>-720.81733120000001</v>
       </c>
       <c r="D21" s="43">
@@ -5921,31 +5924,31 @@
         <v>4.163E-2</v>
       </c>
       <c r="G21" s="43">
+        <f t="shared" si="2"/>
+        <v>-720.74371556410006</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" si="3"/>
+        <v>-720.7326078358999</v>
+      </c>
+      <c r="I21" s="48">
+        <f t="shared" si="4"/>
+        <v>-720.77570119999996</v>
+      </c>
+      <c r="J21" s="48">
         <f t="shared" si="0"/>
-        <v>-720.74371556410006</v>
-      </c>
-      <c r="H21" s="43">
+        <v>0.52995929999997315</v>
+      </c>
+      <c r="K21" s="43">
+        <f t="shared" ref="K21" si="7">J21*627.51</f>
+        <v>332.55476034298317</v>
+      </c>
+      <c r="M21" s="43">
         <f t="shared" si="1"/>
-        <v>-720.7326078358999</v>
-      </c>
-      <c r="I21" s="54">
-        <f t="shared" si="2"/>
-        <v>-720.77570119999996</v>
-      </c>
-      <c r="J21" s="54">
-        <f>I51+$I$31-I21</f>
-        <v>0.52995929999997315</v>
-      </c>
-      <c r="K21" s="43">
-        <f t="shared" ref="K21" si="5">J21*627.51</f>
-        <v>332.55476034298317</v>
-      </c>
-      <c r="M21" s="43">
-        <f>H51+$H$31-H21</f>
         <v>0.54448465829977977</v>
       </c>
       <c r="N21" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>341.66956792969478</v>
       </c>
     </row>
@@ -5969,31 +5972,31 @@
         <v>1.7446E-2</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" ref="G22:G28" si="6">C22+0.9887*D22</f>
+        <f t="shared" ref="G22:G28" si="8">C22+0.9887*D22</f>
         <v>-919.06230982229999</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" ref="H22:H28" si="7">C22+D22+E22-D22*0.9887</f>
+        <f t="shared" ref="H22:H28" si="9">C22+D22+E22-D22*0.9887</f>
         <v>-919.04981637770015</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" ref="I22:I28" si="8">C22+F22</f>
+        <f t="shared" ref="I22:I28" si="10">C22+F22</f>
         <v>-919.09773060000009</v>
       </c>
       <c r="J22" s="11">
-        <f>I52+$I$31-I22</f>
+        <f t="shared" si="0"/>
         <v>919.0877306000001</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" ref="K22:K28" si="9">J22*627.51</f>
+        <f t="shared" ref="K22:K28" si="11">J22*627.51</f>
         <v>576736.741828806</v>
       </c>
       <c r="M22">
-        <f>H52+$H$31-H22</f>
+        <f t="shared" si="1"/>
         <v>919.05217637770011</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>576714.43119877053</v>
       </c>
     </row>
@@ -6017,24 +6020,24 @@
         <v>1.1648E-2</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-875.88948096170009</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-875.87713443829989</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-875.9254972</v>
       </c>
       <c r="J23" s="11">
-        <f>I53+$I$31-I23</f>
-        <v>875.9154972</v>
+        <f t="shared" si="0"/>
+        <v>0.45419670000001133</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="9"/>
-        <v>549645.733647972</v>
+        <f t="shared" si="11"/>
+        <v>285.01297121700713</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -6057,23 +6060,23 @@
         <v>1.1035E-2</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1236.3040488332001</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1236.2918493668001</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1236.3402381000001</v>
       </c>
       <c r="J24" s="11">
-        <f>I54+$I$31-I24</f>
+        <f t="shared" si="0"/>
         <v>0.45975610000004963</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>288.50155031103111</v>
       </c>
     </row>
@@ -6081,27 +6084,40 @@
       <c r="A25" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1">
+        <v>-440.67755039999997</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-440.71891920000002</v>
+      </c>
+      <c r="D25">
+        <v>5.2618999999999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>6.1224000000000001E-2</v>
+      </c>
+      <c r="F25">
+        <v>2.0451E-2</v>
+      </c>
       <c r="G25" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-440.6668947947</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-440.65710060530006</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-440.69846820000004</v>
       </c>
       <c r="J25" s="11">
-        <f>I55+$I$31-I25</f>
-        <v>-0.01</v>
+        <f t="shared" si="0"/>
+        <v>440.68846820000005</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="9"/>
-        <v>-6.2751000000000001</v>
+        <f t="shared" si="11"/>
+        <v>276536.420680182</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -6124,23 +6140,23 @@
         <v>1.7503000000000001E-2</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-801.07367439220002</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-801.0633694078</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-801.10678689999997</v>
       </c>
       <c r="J26" s="11">
-        <f>I56+$I$31-I26</f>
+        <f t="shared" si="0"/>
         <v>801.09678689999998</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>502696.24474761897</v>
       </c>
     </row>
@@ -6164,23 +6180,23 @@
         <v>2.1728999999999998E-2</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1180.2616115988999</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1180.2486034011001</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1180.2992569999999</v>
       </c>
       <c r="J27" s="11">
-        <f>I57+$I$31-I27</f>
+        <f t="shared" si="0"/>
         <v>1180.2892569999999</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>740643.31166006997</v>
       </c>
     </row>
@@ -6204,23 +6220,23 @@
         <v>2.6755999999999999E-2</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-819.8885215265999</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-819.87621747339995</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-819.92314599999997</v>
       </c>
       <c r="J28" s="11">
-        <f>I58+$I$31-I28</f>
+        <f t="shared" si="0"/>
         <v>819.91314599999998</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>514503.69824646</v>
       </c>
     </row>
@@ -6244,23 +6260,23 @@
         <v>9.7199999999999995E-3</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" ref="G29" si="10">C29+0.9887*D29</f>
+        <f t="shared" ref="G29" si="12">C29+0.9887*D29</f>
         <v>-1639.8118930493001</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" ref="H29" si="11">C29+D29+E29-D29*0.9887</f>
+        <f t="shared" ref="H29" si="13">C29+D29+E29-D29*0.9887</f>
         <v>-1639.7979221506998</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" ref="I29" si="12">C29+F29</f>
+        <f t="shared" ref="I29" si="14">C29+F29</f>
         <v>-1639.8518661000001</v>
       </c>
       <c r="J29" s="11">
-        <f>I59+$I$31-I29</f>
+        <f t="shared" si="0"/>
         <v>1639.8418661000001</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" ref="K29" si="13">J29*627.51</f>
+        <f t="shared" ref="K29" si="15">J29*627.51</f>
         <v>1029017.169396411</v>
       </c>
     </row>
@@ -6294,15 +6310,15 @@
         <v>-0.01</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" ref="G31" si="14">C31+0.9887*D31</f>
+        <f t="shared" ref="G31" si="16">C31+0.9887*D31</f>
         <v>0</v>
       </c>
       <c r="H31" s="18">
-        <f t="shared" ref="H31" si="15">C31+D31+E31-0.9887*D31</f>
+        <f t="shared" ref="H31" si="17">C31+D31+E31-0.9887*D31</f>
         <v>2.3600000000000001E-3</v>
       </c>
       <c r="I31" s="19">
-        <f t="shared" ref="I31" si="16">C31+F31</f>
+        <f t="shared" ref="I31" si="18">C31+F31</f>
         <v>-0.01</v>
       </c>
     </row>
@@ -6339,15 +6355,15 @@
         <v>1.4524E-2</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" ref="G33:G50" si="17">C33+0.9887*D33</f>
+        <f t="shared" ref="G33:G50" si="19">C33+0.9887*D33</f>
         <v>-602.9059219943</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" ref="H33:H50" si="18">C33+D33+E33-0.9887*D33</f>
+        <f t="shared" ref="H33:H50" si="20">C33+D33+E33-0.9887*D33</f>
         <v>-602.8949064057</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" ref="I33:I50" si="19">C33+F33</f>
+        <f t="shared" ref="I33:I50" si="21">C33+F33</f>
         <v>-602.94173369999999</v>
       </c>
     </row>
@@ -6371,15 +6387,15 @@
         <v>9.9010000000000001E-3</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-925.86823960690003</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-925.85669599309995</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-925.9060068</v>
       </c>
     </row>
@@ -6403,15 +6419,15 @@
         <v>1.3917000000000001E-2</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1038.2387825156002</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-1038.2263370844</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1038.2758943000001</v>
       </c>
     </row>
@@ -6435,15 +6451,15 @@
         <v>6.9340000000000001E-3</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-800.38744346930002</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-800.37820413069994</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-800.41972229999999</v>
       </c>
     </row>
@@ -6467,15 +6483,15 @@
         <v>3.4348999999999998E-2</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-404.31474089199997</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-404.30479030799995</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-404.34647659999996</v>
       </c>
     </row>
@@ -6499,15 +6515,15 @@
         <v>3.0137000000000001E-2</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-727.27946481369997</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-727.26896678629987</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-727.31285079999998</v>
       </c>
     </row>
@@ -6531,15 +6547,15 @@
         <v>3.4914000000000001E-2</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-839.65303153759999</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-839.64206226239992</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-839.68589489999999</v>
       </c>
     </row>
@@ -6563,15 +6579,15 @@
         <v>2.0589E-2</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-341.00110276340001</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-340.99259423659998</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-341.03115300000002</v>
       </c>
     </row>
@@ -6595,15 +6611,15 @@
         <v>2.1922000000000001E-2</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1325.0381768503</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-1325.0244615496999</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1325.0765962</v>
       </c>
     </row>
@@ -6627,15 +6643,15 @@
         <v>1.7888000000000001E-2</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-776.3393935245</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-776.3292966754999</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-776.37229009999999</v>
       </c>
     </row>
@@ -6659,15 +6675,15 @@
         <v>4.1555000000000002E-2</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-305.03362069120004</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-305.02394730880002</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-305.06466</v>
       </c>
     </row>
@@ -6691,15 +6707,15 @@
         <v>3.7628000000000002E-2</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-628.00175519890001</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-627.99154140109999</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-628.03437729999996</v>
       </c>
     </row>
@@ -6723,15 +6739,15 @@
         <v>4.3631999999999997E-2</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-740.37903756419996</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-740.36867023579998</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-740.41018489999999</v>
       </c>
     </row>
@@ -6755,15 +6771,15 @@
         <v>2.4865000000000002E-2</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-503.60559468890006</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-503.59509731110001</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-503.63941200000005</v>
       </c>
     </row>
@@ -6787,15 +6803,15 @@
         <v>2.0688999999999999E-2</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-826.56982284729997</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-826.5587789527001</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-826.60521390000008</v>
       </c>
     </row>
@@ -6819,15 +6835,15 @@
         <v>2.5871000000000002E-2</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-938.94121978690009</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-938.92969041309993</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-938.97547459999998</v>
       </c>
     </row>
@@ -6851,15 +6867,15 @@
         <v>4.7800000000000004E-3</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-643.75122882670007</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-643.74293337330005</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-643.78229810000005</v>
       </c>
     </row>
@@ -6883,15 +6899,15 @@
         <v>8.8909999999999996E-3</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-356.92016764409999</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-356.9122709559</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-356.94989229999999</v>
       </c>
     </row>
@@ -6899,10 +6915,10 @@
       <c r="A51" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="54">
+      <c r="B51" s="48">
         <v>-720.17887470000005</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="48">
         <v>-720.25983689999998</v>
       </c>
       <c r="D51" s="43">
@@ -6915,15 +6931,15 @@
         <v>2.4094999999999998E-2</v>
       </c>
       <c r="G51" s="43">
-        <f t="shared" ref="G51:G54" si="20">C51+0.9887*D51</f>
+        <f t="shared" ref="G51:G54" si="22">C51+0.9887*D51</f>
         <v>-720.2018516224</v>
       </c>
       <c r="H51" s="43">
-        <f t="shared" ref="H51:H54" si="21">C51+D51+E51-0.9887*D51</f>
+        <f t="shared" ref="H51:H54" si="23">C51+D51+E51-0.9887*D51</f>
         <v>-720.19048317760007</v>
       </c>
       <c r="I51" s="43">
-        <f t="shared" ref="I51:I54" si="22">C51+F51</f>
+        <f t="shared" ref="I51:I54" si="24">C51+F51</f>
         <v>-720.23574189999999</v>
       </c>
     </row>
@@ -6932,15 +6948,15 @@
         <v>237</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -6948,17 +6964,32 @@
       <c r="A53" t="s">
         <v>250</v>
       </c>
+      <c r="B53" s="1">
+        <v>-875.36914669999999</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-875.46216449999997</v>
+      </c>
+      <c r="D53">
+        <v>3.7116000000000003E-2</v>
+      </c>
+      <c r="E53">
+        <v>4.7968999999999998E-2</v>
+      </c>
+      <c r="F53">
+        <v>8.6399999999999997E-4</v>
+      </c>
       <c r="G53" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>-875.42546791079997</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>-875.41377608920004</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>-875.46130049999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6981,15 +7012,15 @@
         <v>-2.1180000000000001E-3</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-1235.8326096419</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-1235.8205883580999</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1235.870482</v>
       </c>
     </row>
@@ -7030,8 +7061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7039,6 +7070,7 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
@@ -7113,16 +7145,38 @@
       <c r="I3" s="42">
         <v>-723.64819299999999</v>
       </c>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="42">
+        <v>-961.81203200000004</v>
+      </c>
+      <c r="I4" s="42">
+        <v>-961.85295199999996</v>
+      </c>
+      <c r="J4" s="42">
+        <f>I5+'Acidez-H2O'!I31-'g4'!I4</f>
+        <v>0.4651850000000195</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4" si="0">J4*627.51</f>
+        <v>291.90823935001225</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>261</v>
       </c>
+      <c r="C5" s="42">
+        <v>-961.33801300000005</v>
+      </c>
+      <c r="I5" s="42">
+        <v>-961.37776699999995</v>
+      </c>
+      <c r="J5" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7461,7 +7515,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -7473,7 +7527,7 @@
       <c r="D2" s="23">
         <v>4.6652371103000002E-2</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="53" t="s">
         <v>159</v>
       </c>
       <c r="F2" t="s">
@@ -7487,7 +7541,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
+      <c r="A3" s="53"/>
       <c r="B3" t="s">
         <v>103</v>
       </c>
@@ -7497,7 +7551,7 @@
       <c r="D3" s="23">
         <v>1.8516272478000001E-2</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="53"/>
       <c r="F3" t="s">
         <v>189</v>
       </c>
@@ -7509,7 +7563,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -7535,7 +7589,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" t="s">
         <v>103</v>
       </c>
@@ -7545,7 +7599,7 @@
       <c r="D5" s="23">
         <v>2.0639392600999999E-2</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="50" t="s">
         <v>161</v>
       </c>
       <c r="F5" t="s">
@@ -7559,7 +7613,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -7571,7 +7625,7 @@
       <c r="D6" s="23">
         <v>5.6526825358E-2</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="50"/>
       <c r="F6" t="s">
         <v>120</v>
       </c>
@@ -7583,7 +7637,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" t="s">
         <v>111</v>
       </c>
@@ -7593,7 +7647,7 @@
       <c r="D7" s="23">
         <v>1.6308193131000001E-2</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="50" t="s">
         <v>162</v>
       </c>
       <c r="F7" t="s">
@@ -7607,7 +7661,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -7619,7 +7673,7 @@
       <c r="D8" s="23">
         <v>5.6821659750000003E-2</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="50"/>
       <c r="F8" t="s">
         <v>218</v>
       </c>
@@ -7631,7 +7685,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" t="s">
         <v>151</v>
       </c>
@@ -7641,7 +7695,7 @@
       <c r="D9" s="23">
         <v>1.3228378496E-2</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="50" t="s">
         <v>163</v>
       </c>
       <c r="F9" t="s">
@@ -7655,7 +7709,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -7667,7 +7721,7 @@
       <c r="D10" s="23">
         <v>4.2506905206999998E-2</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="50"/>
       <c r="F10" t="s">
         <v>133</v>
       </c>
@@ -7679,7 +7733,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
@@ -7703,7 +7757,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
@@ -7715,7 +7769,7 @@
       <c r="D12" s="23">
         <v>2.3559714453000001E-2</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="50" t="s">
         <v>165</v>
       </c>
       <c r="F12" t="s">
@@ -7729,7 +7783,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>118</v>
       </c>
@@ -7739,7 +7793,7 @@
       <c r="D13" s="23">
         <v>2.6325699235999998E-2</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="50"/>
       <c r="F13" t="s">
         <v>189</v>
       </c>
@@ -7751,7 +7805,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
@@ -7763,7 +7817,7 @@
       <c r="D14" s="23">
         <v>5.2053841881999997E-2</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="50"/>
       <c r="F14" t="s">
         <v>115</v>
       </c>
@@ -7775,7 +7829,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" t="s">
         <v>123</v>
       </c>
@@ -7785,7 +7839,7 @@
       <c r="D15" s="23">
         <v>2.0146330630999999E-2</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="50" t="s">
         <v>166</v>
       </c>
       <c r="F15" t="s">
@@ -7799,7 +7853,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>61</v>
       </c>
       <c r="B16" t="s">
@@ -7811,7 +7865,7 @@
       <c r="D16" s="23">
         <v>4.1633113015999999E-2</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="50"/>
       <c r="F16" t="s">
         <v>209</v>
       </c>
@@ -7823,7 +7877,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" t="s">
         <v>141</v>
       </c>
@@ -7859,7 +7913,7 @@
       <c r="D18" s="33">
         <v>6.7529488887E-2</v>
       </c>
-      <c r="E18" s="52"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
@@ -7871,7 +7925,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="30" t="s">
         <v>137</v>
       </c>
@@ -7881,7 +7935,7 @@
       <c r="D19" s="34">
         <v>1.9594640145000002E-2</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="30" t="s">
         <v>206</v>
       </c>
@@ -7893,7 +7947,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
@@ -7905,7 +7959,7 @@
       <c r="D20" s="23">
         <v>5.1805136710999997E-2</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="50" t="s">
         <v>168</v>
       </c>
       <c r="F20" t="s">
@@ -7922,7 +7976,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -7932,7 +7986,7 @@
       <c r="D21" s="23">
         <v>1.7678524639999998E-2</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="50"/>
       <c r="F21" t="s">
         <v>199</v>
       </c>
@@ -7951,7 +8005,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>64</v>
       </c>
       <c r="B22" t="s">
@@ -7963,7 +8017,7 @@
       <c r="D22" s="23">
         <v>3.9466379422999999E-2</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="50" t="s">
         <v>169</v>
       </c>
       <c r="F22" t="s">
@@ -7984,7 +8038,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" t="s">
         <v>129</v>
       </c>
@@ -7994,7 +8048,7 @@
       <c r="D23" s="23">
         <v>2.6447145485999999E-2</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="50"/>
       <c r="F23" t="s">
         <v>197</v>
       </c>
@@ -8006,7 +8060,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B24" t="s">
@@ -8032,7 +8086,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" t="s">
         <v>104</v>
       </c>
@@ -8042,7 +8096,7 @@
       <c r="D25" s="23">
         <v>2.5867070440999999E-2</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="50" t="s">
         <v>171</v>
       </c>
       <c r="F25" t="s">
@@ -8056,7 +8110,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B26" t="s">
@@ -8068,7 +8122,7 @@
       <c r="D26" s="23">
         <v>4.7364009725000003E-2</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="50"/>
       <c r="F26" t="s">
         <v>192</v>
       </c>
@@ -8080,7 +8134,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -8090,7 +8144,7 @@
       <c r="D27" s="23">
         <v>2.0802877849E-2</v>
       </c>
-      <c r="E27" s="49"/>
+      <c r="E27" s="50"/>
       <c r="F27" t="s">
         <v>118</v>
       </c>
@@ -8102,7 +8156,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
@@ -8114,7 +8168,7 @@
       <c r="D28" s="23">
         <v>4.4461058295000001E-2</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="50" t="s">
         <v>172</v>
       </c>
       <c r="F28" t="s">
@@ -8128,7 +8182,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" t="s">
         <v>120</v>
       </c>
@@ -8138,7 +8192,7 @@
       <c r="D29" s="23">
         <v>2.0830363644E-2</v>
       </c>
-      <c r="E29" s="49"/>
+      <c r="E29" s="50"/>
       <c r="F29" t="s">
         <v>189</v>
       </c>
@@ -8150,7 +8204,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>68</v>
       </c>
       <c r="B30" t="s">
@@ -8176,7 +8230,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="50"/>
       <c r="B31" t="s">
         <v>103</v>
       </c>
@@ -8212,7 +8266,7 @@
       <c r="D32" s="33">
         <v>5.3859563021999998E-2</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="10" t="s">
         <v>103</v>
       </c>
@@ -8224,7 +8278,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="30" t="s">
         <v>111</v>
       </c>
@@ -8234,7 +8288,7 @@
       <c r="D33" s="34">
         <v>1.8988879314E-2</v>
       </c>
-      <c r="E33" s="53"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="30" t="s">
         <v>120</v>
       </c>
@@ -8246,7 +8300,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B34" t="s">
@@ -8258,7 +8312,7 @@
       <c r="D34" s="23">
         <v>5.0631274116999997E-2</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="50" t="s">
         <v>175</v>
       </c>
       <c r="F34" t="s">
@@ -8272,7 +8326,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
+      <c r="A35" s="50"/>
       <c r="B35" t="s">
         <v>107</v>
       </c>
@@ -8282,7 +8336,7 @@
       <c r="D35" s="23">
         <v>1.9195216830999999E-2</v>
       </c>
-      <c r="E35" s="49"/>
+      <c r="E35" s="50"/>
       <c r="F35" t="s">
         <v>179</v>
       </c>
@@ -8294,7 +8348,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B36" t="s">
@@ -8306,7 +8360,7 @@
       <c r="D36" s="23">
         <v>4.8034379889999999E-2</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="50" t="s">
         <v>176</v>
       </c>
       <c r="F36" t="s">
@@ -8320,7 +8374,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
+      <c r="A37" s="50"/>
       <c r="B37" t="s">
         <v>107</v>
       </c>
@@ -8330,7 +8384,7 @@
       <c r="D37" s="23">
         <v>1.5150199381E-2</v>
       </c>
-      <c r="E37" s="49"/>
+      <c r="E37" s="50"/>
       <c r="F37" t="s">
         <v>177</v>
       </c>
@@ -8343,16 +8397,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E28:E29"/>
@@ -8366,15 +8419,16 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1156,24 +1156,24 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1255,44 +1255,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.311786768465142"/>
-                  <c:y val="0.0476694875492553"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1372,6 +1336,12 @@
                 <c:pt idx="1">
                   <c:v>312.5</c:v>
                 </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>299.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299.8</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>302.2</c:v>
                 </c:pt>
@@ -1397,15 +1367,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1154451328"/>
-        <c:axId val="-1154448208"/>
+        <c:axId val="-2069961104"/>
+        <c:axId val="-2069958912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1154451328"/>
+        <c:axId val="-2069961104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="320.0"/>
-          <c:min val="300.0"/>
+          <c:min val="290.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1448,7 +1418,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-ES_tradnl" baseline="0"/>
-                  <a:t> calculado (Kcal/mol)</a:t>
+                  <a:t> (Kcal/mol)</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-ES_tradnl"/>
               </a:p>
@@ -1521,12 +1491,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1154448208"/>
+        <c:crossAx val="-2069958912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1154448208"/>
+        <c:axId val="-2069958912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350.0"/>
@@ -1646,7 +1616,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1154451328"/>
+        <c:crossAx val="-2069961104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2654,13 +2624,13 @@
       <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2844,7 +2814,9 @@
         <f t="shared" si="5"/>
         <v>292.86845515204203</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="49">
+        <v>299.5</v>
+      </c>
       <c r="M5">
         <f t="shared" si="1"/>
         <v>0.47768843079995804</v>
@@ -2893,6 +2865,9 @@
         <f t="shared" si="5"/>
         <v>293.5696348260409</v>
       </c>
+      <c r="L6" s="50">
+        <v>299.8</v>
+      </c>
       <c r="M6">
         <f t="shared" si="1"/>
         <v>0.47917585330003476</v>
@@ -2901,7 +2876,7 @@
         <f t="shared" si="6"/>
         <v>300.68763970430479</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="49">
         <v>299.5</v>
       </c>
     </row>
@@ -2952,7 +2927,7 @@
         <f t="shared" si="6"/>
         <v>335.4755504422393</v>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="50">
         <v>299.8</v>
       </c>
     </row>
@@ -4991,13 +4966,13 @@
       <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -7563,7 +7538,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -7589,7 +7564,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" t="s">
         <v>103</v>
       </c>
@@ -7599,7 +7574,7 @@
       <c r="D5" s="23">
         <v>2.0639392600999999E-2</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="52" t="s">
         <v>161</v>
       </c>
       <c r="F5" t="s">
@@ -7613,7 +7588,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -7625,7 +7600,7 @@
       <c r="D6" s="23">
         <v>5.6526825358E-2</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="52"/>
       <c r="F6" t="s">
         <v>120</v>
       </c>
@@ -7637,7 +7612,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>111</v>
       </c>
@@ -7647,7 +7622,7 @@
       <c r="D7" s="23">
         <v>1.6308193131000001E-2</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="52" t="s">
         <v>162</v>
       </c>
       <c r="F7" t="s">
@@ -7661,7 +7636,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -7673,7 +7648,7 @@
       <c r="D8" s="23">
         <v>5.6821659750000003E-2</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="52"/>
       <c r="F8" t="s">
         <v>218</v>
       </c>
@@ -7685,7 +7660,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>151</v>
       </c>
@@ -7695,7 +7670,7 @@
       <c r="D9" s="23">
         <v>1.3228378496E-2</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="52" t="s">
         <v>163</v>
       </c>
       <c r="F9" t="s">
@@ -7709,7 +7684,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -7721,7 +7696,7 @@
       <c r="D10" s="23">
         <v>4.2506905206999998E-2</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="52"/>
       <c r="F10" t="s">
         <v>133</v>
       </c>
@@ -7733,7 +7708,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
@@ -7757,7 +7732,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
@@ -7769,7 +7744,7 @@
       <c r="D12" s="23">
         <v>2.3559714453000001E-2</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F12" t="s">
@@ -7783,7 +7758,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>118</v>
       </c>
@@ -7793,7 +7768,7 @@
       <c r="D13" s="23">
         <v>2.6325699235999998E-2</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="52"/>
       <c r="F13" t="s">
         <v>189</v>
       </c>
@@ -7805,7 +7780,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
@@ -7817,7 +7792,7 @@
       <c r="D14" s="23">
         <v>5.2053841881999997E-2</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="52"/>
       <c r="F14" t="s">
         <v>115</v>
       </c>
@@ -7829,7 +7804,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" t="s">
         <v>123</v>
       </c>
@@ -7839,7 +7814,7 @@
       <c r="D15" s="23">
         <v>2.0146330630999999E-2</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="52" t="s">
         <v>166</v>
       </c>
       <c r="F15" t="s">
@@ -7853,7 +7828,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B16" t="s">
@@ -7865,7 +7840,7 @@
       <c r="D16" s="23">
         <v>4.1633113015999999E-2</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="52"/>
       <c r="F16" t="s">
         <v>209</v>
       </c>
@@ -7877,7 +7852,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" t="s">
         <v>141</v>
       </c>
@@ -7887,7 +7862,7 @@
       <c r="D17" s="23">
         <v>1.5754432137999999E-2</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="54" t="s">
         <v>167</v>
       </c>
       <c r="F17" s="27" t="s">
@@ -7901,7 +7876,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="54" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -7913,7 +7888,7 @@
       <c r="D18" s="33">
         <v>6.7529488887E-2</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
@@ -7925,7 +7900,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="30" t="s">
         <v>137</v>
       </c>
@@ -7935,7 +7910,7 @@
       <c r="D19" s="34">
         <v>1.9594640145000002E-2</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="30" t="s">
         <v>206</v>
       </c>
@@ -7947,7 +7922,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
@@ -7959,7 +7934,7 @@
       <c r="D20" s="23">
         <v>5.1805136710999997E-2</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="52" t="s">
         <v>168</v>
       </c>
       <c r="F20" t="s">
@@ -7976,7 +7951,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="52"/>
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -7986,7 +7961,7 @@
       <c r="D21" s="23">
         <v>1.7678524639999998E-2</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="52"/>
       <c r="F21" t="s">
         <v>199</v>
       </c>
@@ -8005,7 +7980,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B22" t="s">
@@ -8017,7 +7992,7 @@
       <c r="D22" s="23">
         <v>3.9466379422999999E-2</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="52" t="s">
         <v>169</v>
       </c>
       <c r="F22" t="s">
@@ -8038,7 +8013,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="52"/>
       <c r="B23" t="s">
         <v>129</v>
       </c>
@@ -8048,7 +8023,7 @@
       <c r="D23" s="23">
         <v>2.6447145485999999E-2</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="52"/>
       <c r="F23" t="s">
         <v>197</v>
       </c>
@@ -8060,7 +8035,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="52" t="s">
         <v>65</v>
       </c>
       <c r="B24" t="s">
@@ -8086,7 +8061,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="52"/>
       <c r="B25" t="s">
         <v>104</v>
       </c>
@@ -8096,7 +8071,7 @@
       <c r="D25" s="23">
         <v>2.5867070440999999E-2</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="52" t="s">
         <v>171</v>
       </c>
       <c r="F25" t="s">
@@ -8110,7 +8085,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B26" t="s">
@@ -8122,7 +8097,7 @@
       <c r="D26" s="23">
         <v>4.7364009725000003E-2</v>
       </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="52"/>
       <c r="F26" t="s">
         <v>192</v>
       </c>
@@ -8134,7 +8109,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="52"/>
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -8144,7 +8119,7 @@
       <c r="D27" s="23">
         <v>2.0802877849E-2</v>
       </c>
-      <c r="E27" s="50"/>
+      <c r="E27" s="52"/>
       <c r="F27" t="s">
         <v>118</v>
       </c>
@@ -8156,7 +8131,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="52" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
@@ -8168,7 +8143,7 @@
       <c r="D28" s="23">
         <v>4.4461058295000001E-2</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="52" t="s">
         <v>172</v>
       </c>
       <c r="F28" t="s">
@@ -8182,7 +8157,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="52"/>
       <c r="B29" t="s">
         <v>120</v>
       </c>
@@ -8192,7 +8167,7 @@
       <c r="D29" s="23">
         <v>2.0830363644E-2</v>
       </c>
-      <c r="E29" s="50"/>
+      <c r="E29" s="52"/>
       <c r="F29" t="s">
         <v>189</v>
       </c>
@@ -8204,7 +8179,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B30" t="s">
@@ -8230,7 +8205,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="52"/>
       <c r="B31" t="s">
         <v>103</v>
       </c>
@@ -8240,7 +8215,7 @@
       <c r="D31" s="23">
         <v>2.1864158854999999E-2</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="54" t="s">
         <v>174</v>
       </c>
       <c r="F31" s="27" t="s">
@@ -8254,7 +8229,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -8266,7 +8241,7 @@
       <c r="D32" s="33">
         <v>5.3859563021999998E-2</v>
       </c>
-      <c r="E32" s="54"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="10" t="s">
         <v>103</v>
       </c>
@@ -8278,7 +8253,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="30" t="s">
         <v>111</v>
       </c>
@@ -8288,7 +8263,7 @@
       <c r="D33" s="34">
         <v>1.8988879314E-2</v>
       </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="30" t="s">
         <v>120</v>
       </c>
@@ -8300,7 +8275,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B34" t="s">
@@ -8312,7 +8287,7 @@
       <c r="D34" s="23">
         <v>5.0631274116999997E-2</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="52" t="s">
         <v>175</v>
       </c>
       <c r="F34" t="s">
@@ -8326,7 +8301,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" t="s">
         <v>107</v>
       </c>
@@ -8336,7 +8311,7 @@
       <c r="D35" s="23">
         <v>1.9195216830999999E-2</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="52"/>
       <c r="F35" t="s">
         <v>179</v>
       </c>
@@ -8348,7 +8323,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="52" t="s">
         <v>71</v>
       </c>
       <c r="B36" t="s">
@@ -8360,7 +8335,7 @@
       <c r="D36" s="23">
         <v>4.8034379889999999E-2</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="52" t="s">
         <v>176</v>
       </c>
       <c r="F36" t="s">
@@ -8374,7 +8349,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" t="s">
         <v>107</v>
       </c>
@@ -8384,7 +8359,7 @@
       <c r="D37" s="23">
         <v>1.5150199381E-2</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="52"/>
       <c r="F37" t="s">
         <v>177</v>
       </c>
@@ -8397,15 +8372,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E28:E29"/>
@@ -8419,16 +8395,15 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
